--- a/data/metric_data-compare.xlsx
+++ b/data/metric_data-compare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06d335bcba30d7c9/MSc Individual Project - SWT KG/iteration5/git-repo/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06d335bcba30d7c9/MSc Individual Project - SWT KG/iteration 9/git-repo/City-MSc-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{64AC38A9-2F7C-48E1-9E63-848BF6AFEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{554943D4-5481-4C40-A9D1-4286F48FC2C7}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{64AC38A9-2F7C-48E1-9E63-848BF6AFEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53EBAC0-003F-46AE-87B8-3A1875FC0190}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,12 @@
     <sheet name="metrics_data-compare" sheetId="1" r:id="rId1"/>
     <sheet name="readme" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1086,7 +1084,7 @@
   <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:X2"/>
+      <selection activeCell="M3" sqref="M3:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,40 +1142,40 @@
         <v>13</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="6" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" t="s">
         <v>17</v>
       </c>
       <c r="Y2" s="2"/>

--- a/data/metric_data-compare.xlsx
+++ b/data/metric_data-compare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06d335bcba30d7c9/MSc Individual Project - SWT KG/iteration10/git-repo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{64AC38A9-2F7C-48E1-9E63-848BF6AFEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C031C2AB-CAFA-4E06-8E8D-9C752A58DFBF}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{64AC38A9-2F7C-48E1-9E63-848BF6AFEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F214D199-A538-4EAA-84DC-9D21C6782128}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -730,13 +730,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
   </cellXfs>
@@ -1122,24 +1121,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="3.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="3.5703125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,110 +1152,112 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:37" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1326,7 +1328,7 @@
         <f>IF(A3=M3,"match","error")</f>
         <v>match</v>
       </c>
-      <c r="AA3" s="5" t="str">
+      <c r="AA3" t="str">
         <f t="shared" ref="AA3:AI9" si="0">IF(B3=N3,"match","error")</f>
         <v>error</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1434,7 +1436,7 @@
         <f t="shared" ref="Z4:Z9" si="1">IF(A4=M4,"match","error")</f>
         <v>match</v>
       </c>
-      <c r="AA4" s="5" t="str">
+      <c r="AA4" t="str">
         <f t="shared" si="0"/>
         <v>error</v>
       </c>
@@ -1471,7 +1473,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1542,7 +1544,7 @@
         <f t="shared" si="1"/>
         <v>match</v>
       </c>
-      <c r="AA5" s="5" t="str">
+      <c r="AA5" t="str">
         <f t="shared" si="0"/>
         <v>error</v>
       </c>
@@ -1579,7 +1581,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1650,7 +1652,7 @@
         <f t="shared" si="1"/>
         <v>match</v>
       </c>
-      <c r="AA6" s="5" t="str">
+      <c r="AA6" t="str">
         <f t="shared" si="0"/>
         <v>error</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1758,7 +1760,7 @@
         <f t="shared" si="1"/>
         <v>match</v>
       </c>
-      <c r="AA7" s="5" t="str">
+      <c r="AA7" t="str">
         <f t="shared" si="0"/>
         <v>error</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1866,7 +1868,7 @@
         <f t="shared" si="1"/>
         <v>match</v>
       </c>
-      <c r="AA8" s="5" t="str">
+      <c r="AA8" t="str">
         <f t="shared" si="0"/>
         <v>error</v>
       </c>
@@ -1903,7 +1905,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1974,7 +1976,7 @@
         <f t="shared" si="1"/>
         <v>match</v>
       </c>
-      <c r="AA9" s="5" t="str">
+      <c r="AA9" t="str">
         <f t="shared" si="0"/>
         <v>error</v>
       </c>
@@ -2011,7 +2013,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2082,7 +2084,7 @@
         <f t="shared" ref="Z10:Z15" si="2">IF(A10=M10,"match","error")</f>
         <v>match</v>
       </c>
-      <c r="AA10" s="5" t="str">
+      <c r="AA10" t="str">
         <f t="shared" ref="AA10:AA15" si="3">IF(B10=N10,"match","error")</f>
         <v>error</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2190,7 +2192,7 @@
         <f t="shared" si="2"/>
         <v>match</v>
       </c>
-      <c r="AA11" s="5" t="str">
+      <c r="AA11" t="str">
         <f t="shared" si="3"/>
         <v>error</v>
       </c>
@@ -2227,7 +2229,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2298,7 +2300,7 @@
         <f t="shared" si="2"/>
         <v>match</v>
       </c>
-      <c r="AA12" s="5" t="str">
+      <c r="AA12" t="str">
         <f t="shared" si="3"/>
         <v>error</v>
       </c>
@@ -2335,7 +2337,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2406,7 +2408,7 @@
         <f t="shared" si="2"/>
         <v>match</v>
       </c>
-      <c r="AA13" s="5" t="str">
+      <c r="AA13" t="str">
         <f t="shared" si="3"/>
         <v>error</v>
       </c>
@@ -2443,7 +2445,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2514,7 +2516,7 @@
         <f t="shared" si="2"/>
         <v>match</v>
       </c>
-      <c r="AA14" s="5" t="str">
+      <c r="AA14" t="str">
         <f t="shared" si="3"/>
         <v>error</v>
       </c>
@@ -2551,7 +2553,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2622,7 +2624,7 @@
         <f t="shared" si="2"/>
         <v>match</v>
       </c>
-      <c r="AA15" s="5" t="str">
+      <c r="AA15" t="str">
         <f t="shared" si="3"/>
         <v>error</v>
       </c>
@@ -2659,7 +2661,7 @@
         <v>match</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AA16" t="s">
         <v>52</v>
       </c>
@@ -2674,15 +2676,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFD43F0-ACA6-43EC-8DB8-BD315A175ECB}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2691,37 +2695,37 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2866,29 +2870,29 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2989,29 +2993,29 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
@@ -3127,10 +3131,15 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD14"/>
+      <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3138,33 +3147,33 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3207,37 +3216,37 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3286,53 +3295,53 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>IF(A3=A8,"match","ERROR")</f>
-        <v>match</v>
-      </c>
-      <c r="B13" s="7" t="str">
-        <f>IF(B3=B8,"match","ERROR")</f>
+        <f t="shared" ref="A13:F13" si="0">IF(A3=A8,"match","ERROR")</f>
+        <v>match</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>ERROR</v>
       </c>
       <c r="C13" t="str">
-        <f>IF(C3=C8,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(D3=D8,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(E3=E8,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="F13" t="str">
-        <f>IF(F3=F8,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
     </row>
@@ -3346,10 +3355,17 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection sqref="A1:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3357,23 +3373,23 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="F2" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -3590,25 +3606,25 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3705,9 +3721,9 @@
       <c r="G16">
         <v>2.9</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3731,7 +3747,7 @@
       <c r="G17">
         <v>4</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3762,19 +3778,19 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
@@ -3789,7 +3805,7 @@
         <f>IF(A3=A13,"match","ERROR")</f>
         <v>match</v>
       </c>
-      <c r="B22" s="7" t="str">
+      <c r="B22" s="6" t="str">
         <f t="shared" ref="B22:G22" si="0">IF(B3=B13,"match","ERROR")</f>
         <v>ERROR</v>
       </c>
@@ -3819,7 +3835,7 @@
         <f t="shared" ref="A23:G27" si="1">IF(A4=A14,"match","ERROR")</f>
         <v>match</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ERROR</v>
       </c>
@@ -3849,7 +3865,7 @@
         <f t="shared" si="1"/>
         <v>match</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ERROR</v>
       </c>
@@ -3879,7 +3895,7 @@
         <f t="shared" si="1"/>
         <v>match</v>
       </c>
-      <c r="B25" s="7" t="str">
+      <c r="B25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ERROR</v>
       </c>
@@ -3909,7 +3925,7 @@
         <f t="shared" si="1"/>
         <v>match</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ERROR</v>
       </c>
@@ -3939,7 +3955,7 @@
         <f t="shared" si="1"/>
         <v>match</v>
       </c>
-      <c r="B27" s="7" t="str">
+      <c r="B27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ERROR</v>
       </c>

--- a/data/metric_data-compare.xlsx
+++ b/data/metric_data-compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06d335bcba30d7c9/MSc Individual Project - SWT KG/iteration11/City-MSc-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{64AC38A9-2F7C-48E1-9E63-848BF6AFEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{846E93AE-2EA7-4F42-A886-AA05440D5FDA}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{64AC38A9-2F7C-48E1-9E63-848BF6AFEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C24160-D4B2-492E-B6EE-DC8A8F220F49}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000000"/>
-    <numFmt numFmtId="175" formatCode="0.000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1198,9 +1198,9 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1604,7 +1604,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE3" sqref="AE3"/>
+      <selection pane="bottomRight" activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,9 +1618,11 @@
     <col min="16" max="16" width="23.85546875" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.5703125" style="3" customWidth="1"/>
     <col min="24" max="24" width="9.85546875" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15.140625" style="8" bestFit="1" customWidth="1"/>
@@ -1799,23 +1801,23 @@
         <v>18</v>
       </c>
       <c r="X3" t="str">
-        <f>IF(A3=K3,"match","error")</f>
+        <f>IF(A3=K3,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="Y3" s="6" t="str">
-        <f>IF(B3=L3,"match","error")</f>
-        <v>error</v>
+        <f t="shared" ref="Y3:AB3" si="0">IF(B3=L3,"match","mismatch")</f>
+        <v>mismatch</v>
       </c>
       <c r="Z3" t="str">
-        <f>IF(C3=M3,"match","error")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA3" t="str">
-        <f>IF(D3=N3,"match","error")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AB3" t="str">
-        <f>IF(E3=O3,"match","error")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AC3" t="str">
@@ -1831,7 +1833,7 @@
         <v>match</v>
       </c>
       <c r="AF3" t="str">
-        <f>IF(I3=S3,"match","error")</f>
+        <f t="shared" ref="AF3:AF34" si="1">IF(I3=S3,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -1900,39 +1902,39 @@
         <v>18</v>
       </c>
       <c r="X4" t="str">
-        <f>IF(A4=K4,"match","error")</f>
+        <f t="shared" ref="X4:X67" si="2">IF(A4=K4,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="Y4" s="6" t="str">
-        <f>IF(B4=L4,"match","error")</f>
-        <v>error</v>
+        <f t="shared" ref="Y4:Y67" si="3">IF(B4=L4,"match","mismatch")</f>
+        <v>mismatch</v>
       </c>
       <c r="Z4" t="str">
-        <f>IF(C4=M4,"match","error")</f>
+        <f t="shared" ref="Z4:Z67" si="4">IF(C4=M4,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="AA4" t="str">
-        <f>IF(D4=N4,"match","error")</f>
+        <f t="shared" ref="AA4:AA67" si="5">IF(D4=N4,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="AB4" t="str">
-        <f>IF(E4=O4,"match","error")</f>
+        <f t="shared" ref="AB4:AB67" si="6">IF(E4=O4,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="AC4" t="str">
-        <f t="shared" ref="AC4:AC67" si="0">IF(F4=P4,"match",F4-P4)</f>
+        <f t="shared" ref="AC4:AC67" si="7">IF(F4=P4,"match",F4-P4)</f>
         <v>match</v>
       </c>
       <c r="AD4" t="str">
-        <f t="shared" ref="AD4:AD67" si="1">IF(G4=Q4,"match",G4-Q4)</f>
+        <f t="shared" ref="AD4:AD67" si="8">IF(G4=Q4,"match",G4-Q4)</f>
         <v>match</v>
       </c>
       <c r="AE4" t="str">
-        <f t="shared" ref="AE4:AE67" si="2">IF(H4=R4,"match",H4-R4)</f>
+        <f t="shared" ref="AE4:AE67" si="9">IF(H4=R4,"match",H4-R4)</f>
         <v>match</v>
       </c>
       <c r="AF4" t="str">
-        <f>IF(I4=S4,"match","error")</f>
+        <f t="shared" si="1"/>
         <v>match</v>
       </c>
     </row>
@@ -2001,39 +2003,39 @@
         <v>18</v>
       </c>
       <c r="X5" t="str">
-        <f>IF(A5=K5,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y5" s="6" t="str">
-        <f>IF(B5=L5,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z5" t="str">
-        <f>IF(C5=M5,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA5" t="str">
-        <f>IF(D5=N5,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB5" t="str">
-        <f>IF(E5=O5,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD5" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF5" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE5" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF5" t="str">
-        <f>IF(I5=S5,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -2102,39 +2104,39 @@
         <v>18</v>
       </c>
       <c r="X6" t="str">
-        <f>IF(A6=K6,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y6" s="6" t="str">
-        <f>IF(B6=L6,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z6" t="str">
-        <f>IF(C6=M6,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA6" t="str">
-        <f>IF(D6=N6,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB6" t="str">
-        <f>IF(E6=O6,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD6" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF6" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE6" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF6" t="str">
-        <f>IF(I6=S6,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -2203,39 +2205,39 @@
         <v>18</v>
       </c>
       <c r="X7" t="str">
-        <f>IF(A7=K7,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y7" s="6" t="str">
-        <f>IF(B7=L7,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z7" t="str">
-        <f>IF(C7=M7,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA7" t="str">
-        <f>IF(D7=N7,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB7" t="str">
-        <f>IF(E7=O7,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD7" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF7" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE7" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF7" t="str">
-        <f>IF(I7=S7,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -2304,39 +2306,39 @@
         <v>18</v>
       </c>
       <c r="X8" t="str">
-        <f>IF(A8=K8,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y8" s="6" t="str">
-        <f>IF(B8=L8,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z8" t="str">
-        <f>IF(C8=M8,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA8" t="str">
-        <f>IF(D8=N8,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB8" t="str">
-        <f>IF(E8=O8,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD8" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF8" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE8" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF8" t="str">
-        <f>IF(I8=S8,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -2405,39 +2407,39 @@
         <v>18</v>
       </c>
       <c r="X9" t="str">
-        <f>IF(A9=K9,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y9" s="6" t="str">
-        <f>IF(B9=L9,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z9" t="str">
-        <f>IF(C9=M9,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA9" t="str">
-        <f>IF(D9=N9,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB9" t="str">
-        <f>IF(E9=O9,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD9" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF9" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE9" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF9" t="str">
-        <f>IF(I9=S9,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -2506,39 +2508,39 @@
         <v>18</v>
       </c>
       <c r="X10" t="str">
-        <f>IF(A10=K10,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y10" s="6" t="str">
-        <f>IF(B10=L10,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z10" t="str">
-        <f>IF(C10=M10,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA10" t="str">
-        <f>IF(D10=N10,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB10" t="str">
-        <f>IF(E10=O10,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD10" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF10" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE10" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF10" t="str">
-        <f>IF(I10=S10,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -2607,39 +2609,39 @@
         <v>18</v>
       </c>
       <c r="X11" t="str">
-        <f>IF(A11=K11,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y11" s="6" t="str">
-        <f>IF(B11=L11,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z11" t="str">
-        <f>IF(C11=M11,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA11" t="str">
-        <f>IF(D11=N11,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB11" t="str">
-        <f>IF(E11=O11,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD11" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF11" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE11" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF11" t="str">
-        <f>IF(I11=S11,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -2708,39 +2710,39 @@
         <v>18</v>
       </c>
       <c r="X12" t="str">
-        <f>IF(A12=K12,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y12" s="6" t="str">
-        <f>IF(B12=L12,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z12" t="str">
-        <f>IF(C12=M12,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA12" t="str">
-        <f>IF(D12=N12,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB12" t="str">
-        <f>IF(E12=O12,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD12" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF12" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE12" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF12" t="str">
-        <f>IF(I12=S12,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -2809,39 +2811,39 @@
         <v>18</v>
       </c>
       <c r="X13" t="str">
-        <f>IF(A13=K13,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y13" s="6" t="str">
-        <f>IF(B13=L13,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z13" t="str">
-        <f>IF(C13=M13,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA13" t="str">
-        <f>IF(D13=N13,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB13" t="str">
-        <f>IF(E13=O13,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD13" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF13" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE13" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF13" t="str">
-        <f>IF(I13=S13,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -2910,39 +2912,39 @@
         <v>18</v>
       </c>
       <c r="X14" t="str">
-        <f>IF(A14=K14,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y14" s="6" t="str">
-        <f>IF(B14=L14,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z14" t="str">
-        <f>IF(C14=M14,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA14" t="str">
-        <f>IF(D14=N14,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB14" t="str">
-        <f>IF(E14=O14,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD14" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF14" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE14" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF14" t="str">
-        <f>IF(I14=S14,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -3011,39 +3013,39 @@
         <v>18</v>
       </c>
       <c r="X15" t="str">
-        <f>IF(A15=K15,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y15" s="6" t="str">
-        <f>IF(B15=L15,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z15" t="str">
-        <f>IF(C15=M15,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA15" t="str">
-        <f>IF(D15=N15,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB15" t="str">
-        <f>IF(E15=O15,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD15" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF15" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE15" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF15" t="str">
-        <f>IF(I15=S15,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -3112,39 +3114,39 @@
         <v>18</v>
       </c>
       <c r="X16" t="str">
-        <f>IF(A16=K16,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y16" s="6" t="str">
-        <f>IF(B16=L16,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z16" t="str">
-        <f>IF(C16=M16,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA16" t="str">
-        <f>IF(D16=N16,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB16" t="str">
-        <f>IF(E16=O16,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD16" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF16" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE16" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF16" t="str">
-        <f>IF(I16=S16,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -3213,39 +3215,39 @@
         <v>18</v>
       </c>
       <c r="X17" t="str">
-        <f>IF(A17=K17,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y17" s="6" t="str">
-        <f>IF(B17=L17,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z17" t="str">
-        <f>IF(C17=M17,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA17" t="str">
-        <f>IF(D17=N17,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB17" t="str">
-        <f>IF(E17=O17,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD17" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF17" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE17" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF17" t="str">
-        <f>IF(I17=S17,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -3314,39 +3316,39 @@
         <v>18</v>
       </c>
       <c r="X18" t="str">
-        <f>IF(A18=K18,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y18" s="6" t="str">
-        <f>IF(B18=L18,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z18" t="str">
-        <f>IF(C18=M18,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA18" t="str">
-        <f>IF(D18=N18,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB18" t="str">
-        <f>IF(E18=O18,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD18" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF18" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE18" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF18" t="str">
-        <f>IF(I18=S18,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -3415,39 +3417,39 @@
         <v>18</v>
       </c>
       <c r="X19" t="str">
-        <f>IF(A19=K19,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y19" s="6" t="str">
-        <f>IF(B19=L19,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z19" t="str">
-        <f>IF(C19=M19,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA19" t="str">
-        <f>IF(D19=N19,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB19" t="str">
-        <f>IF(E19=O19,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD19" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF19" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE19" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF19" t="str">
-        <f>IF(I19=S19,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -3516,39 +3518,39 @@
         <v>18</v>
       </c>
       <c r="X20" t="str">
-        <f>IF(A20=K20,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y20" s="6" t="str">
-        <f>IF(B20=L20,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z20" t="str">
-        <f>IF(C20=M20,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA20" t="str">
-        <f>IF(D20=N20,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB20" t="str">
-        <f>IF(E20=O20,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD20" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF20" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE20" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF20" t="str">
-        <f>IF(I20=S20,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -3617,39 +3619,39 @@
         <v>18</v>
       </c>
       <c r="X21" t="str">
-        <f>IF(A21=K21,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y21" s="6" t="str">
-        <f>IF(B21=L21,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z21" t="str">
-        <f>IF(C21=M21,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA21" t="str">
-        <f>IF(D21=N21,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB21" t="str">
-        <f>IF(E21=O21,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD21" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE21" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF21" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE21" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF21" t="str">
-        <f>IF(I21=S21,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -3718,39 +3720,39 @@
         <v>18</v>
       </c>
       <c r="X22" t="str">
-        <f>IF(A22=K22,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y22" s="6" t="str">
-        <f>IF(B22=L22,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z22" t="str">
-        <f>IF(C22=M22,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA22" t="str">
-        <f>IF(D22=N22,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB22" t="str">
-        <f>IF(E22=O22,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD22" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE22" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF22" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE22" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF22" t="str">
-        <f>IF(I22=S22,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -3819,39 +3821,39 @@
         <v>18</v>
       </c>
       <c r="X23" t="str">
-        <f>IF(A23=K23,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y23" s="6" t="str">
-        <f>IF(B23=L23,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z23" t="str">
-        <f>IF(C23=M23,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA23" t="str">
-        <f>IF(D23=N23,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="5"/>
+        <v>mismatch</v>
       </c>
       <c r="AB23" t="str">
-        <f>IF(E23=O23,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD23" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE23" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF23" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE23" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF23" t="str">
-        <f>IF(I23=S23,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -3920,39 +3922,39 @@
         <v>18</v>
       </c>
       <c r="X24" t="str">
-        <f>IF(A24=K24,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y24" s="6" t="str">
-        <f>IF(B24=L24,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z24" t="str">
-        <f>IF(C24=M24,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA24" t="str">
-        <f>IF(D24=N24,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="5"/>
+        <v>mismatch</v>
       </c>
       <c r="AB24" t="str">
-        <f>IF(E24=O24,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD24" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE24" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF24" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE24" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF24" t="str">
-        <f>IF(I24=S24,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -4021,39 +4023,39 @@
         <v>119</v>
       </c>
       <c r="X25" t="str">
-        <f>IF(A25=K25,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y25" s="6" t="str">
-        <f>IF(B25=L25,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z25" t="str">
-        <f>IF(C25=M25,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA25" t="str">
-        <f>IF(D25=N25,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB25" t="str">
-        <f>IF(E25=O25,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD25" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE25" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF25" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE25" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF25" t="str">
-        <f>IF(I25=S25,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -4122,39 +4124,39 @@
         <v>119</v>
       </c>
       <c r="X26" t="str">
-        <f>IF(A26=K26,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y26" s="6" t="str">
-        <f>IF(B26=L26,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z26" t="str">
-        <f>IF(C26=M26,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA26" t="str">
-        <f>IF(D26=N26,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB26" t="str">
-        <f>IF(E26=O26,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD26" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE26" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF26" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE26" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF26" t="str">
-        <f>IF(I26=S26,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -4223,39 +4225,39 @@
         <v>119</v>
       </c>
       <c r="X27" t="str">
-        <f>IF(A27=K27,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y27" s="6" t="str">
-        <f>IF(B27=L27,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z27" t="str">
-        <f>IF(C27=M27,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA27" t="str">
-        <f>IF(D27=N27,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB27" t="str">
-        <f>IF(E27=O27,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD27" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE27" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF27" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE27" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF27" t="str">
-        <f>IF(I27=S27,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -4324,39 +4326,39 @@
         <v>119</v>
       </c>
       <c r="X28" t="str">
-        <f>IF(A28=K28,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y28" s="6" t="str">
-        <f>IF(B28=L28,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z28" t="str">
-        <f>IF(C28=M28,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA28" t="str">
-        <f>IF(D28=N28,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB28" t="str">
-        <f>IF(E28=O28,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD28" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE28" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF28" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE28" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF28" t="str">
-        <f>IF(I28=S28,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -4425,39 +4427,39 @@
         <v>18</v>
       </c>
       <c r="X29" t="str">
-        <f>IF(A29=K29,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y29" s="6" t="str">
-        <f>IF(B29=L29,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z29" t="str">
-        <f>IF(C29=M29,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA29" t="str">
-        <f>IF(D29=N29,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB29" t="str">
-        <f>IF(E29=O29,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD29" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE29" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF29" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE29" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF29" t="str">
-        <f>IF(I29=S29,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -4526,39 +4528,39 @@
         <v>18</v>
       </c>
       <c r="X30" t="str">
-        <f>IF(A30=K30,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y30" s="6" t="str">
-        <f>IF(B30=L30,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z30" t="str">
-        <f>IF(C30=M30,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA30" t="str">
-        <f>IF(D30=N30,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB30" t="str">
-        <f>IF(E30=O30,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD30" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE30" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF30" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE30" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF30" t="str">
-        <f>IF(I30=S30,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -4627,39 +4629,39 @@
         <v>18</v>
       </c>
       <c r="X31" t="str">
-        <f>IF(A31=K31,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y31" s="6" t="str">
-        <f>IF(B31=L31,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z31" t="str">
-        <f>IF(C31=M31,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA31" t="str">
-        <f>IF(D31=N31,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB31" t="str">
-        <f>IF(E31=O31,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD31" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE31" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF31" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE31" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF31" t="str">
-        <f>IF(I31=S31,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -4728,39 +4730,39 @@
         <v>18</v>
       </c>
       <c r="X32" t="str">
-        <f>IF(A32=K32,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y32" s="6" t="str">
-        <f>IF(B32=L32,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z32" t="str">
-        <f>IF(C32=M32,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA32" t="str">
-        <f>IF(D32=N32,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB32" t="str">
-        <f>IF(E32=O32,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD32" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE32" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF32" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE32" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF32" t="str">
-        <f>IF(I32=S32,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -4829,39 +4831,39 @@
         <v>18</v>
       </c>
       <c r="X33" t="str">
-        <f>IF(A33=K33,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y33" s="6" t="str">
-        <f>IF(B33=L33,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z33" t="str">
-        <f>IF(C33=M33,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA33" t="str">
-        <f>IF(D33=N33,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB33" t="str">
-        <f>IF(E33=O33,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD33" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE33" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF33" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE33" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF33" t="str">
-        <f>IF(I33=S33,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -4930,39 +4932,39 @@
         <v>18</v>
       </c>
       <c r="X34" t="str">
-        <f>IF(A34=K34,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y34" s="6" t="str">
-        <f>IF(B34=L34,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z34" t="str">
-        <f>IF(C34=M34,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA34" t="str">
-        <f>IF(D34=N34,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB34" t="str">
-        <f>IF(E34=O34,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD34" t="str">
+        <f t="shared" si="8"/>
+        <v>match</v>
+      </c>
+      <c r="AE34" t="str">
+        <f t="shared" si="9"/>
+        <v>match</v>
+      </c>
+      <c r="AF34" t="str">
         <f t="shared" si="1"/>
-        <v>match</v>
-      </c>
-      <c r="AE34" t="str">
-        <f t="shared" si="2"/>
-        <v>match</v>
-      </c>
-      <c r="AF34" t="str">
-        <f>IF(I34=S34,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -5031,39 +5033,39 @@
         <v>18</v>
       </c>
       <c r="X35" t="str">
-        <f>IF(A35=K35,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y35" s="6" t="str">
-        <f>IF(B35=L35,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z35" t="str">
-        <f>IF(C35=M35,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA35" t="str">
-        <f>IF(D35=N35,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB35" t="str">
-        <f>IF(E35=O35,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF35" t="str">
-        <f>IF(I35=S35,"match","error")</f>
+        <f t="shared" ref="AF35:AF66" si="10">IF(I35=S35,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -5132,39 +5134,39 @@
         <v>18</v>
       </c>
       <c r="X36" t="str">
-        <f>IF(A36=K36,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y36" s="6" t="str">
-        <f>IF(B36=L36,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z36" t="str">
-        <f>IF(C36=M36,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA36" t="str">
-        <f>IF(D36=N36,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB36" t="str">
-        <f>IF(E36=O36,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF36" t="str">
-        <f>IF(I36=S36,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -5233,39 +5235,39 @@
         <v>18</v>
       </c>
       <c r="X37" t="str">
-        <f>IF(A37=K37,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y37" s="6" t="str">
-        <f>IF(B37=L37,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z37" t="str">
-        <f>IF(C37=M37,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA37" t="str">
-        <f>IF(D37=N37,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB37" t="str">
-        <f>IF(E37=O37,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF37" t="str">
-        <f>IF(I37=S37,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -5334,39 +5336,39 @@
         <v>18</v>
       </c>
       <c r="X38" t="str">
-        <f>IF(A38=K38,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y38" s="6" t="str">
-        <f>IF(B38=L38,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z38" t="str">
-        <f>IF(C38=M38,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA38" t="str">
-        <f>IF(D38=N38,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB38" t="str">
-        <f>IF(E38=O38,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF38" t="str">
-        <f>IF(I38=S38,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -5435,39 +5437,39 @@
         <v>18</v>
       </c>
       <c r="X39" t="str">
-        <f>IF(A39=K39,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y39" s="6" t="str">
-        <f>IF(B39=L39,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z39" t="str">
-        <f>IF(C39=M39,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA39" t="str">
-        <f>IF(D39=N39,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB39" t="str">
-        <f>IF(E39=O39,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF39" t="str">
-        <f>IF(I39=S39,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -5536,39 +5538,39 @@
         <v>18</v>
       </c>
       <c r="X40" t="str">
-        <f>IF(A40=K40,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y40" s="6" t="str">
-        <f>IF(B40=L40,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z40" t="str">
-        <f>IF(C40=M40,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA40" t="str">
-        <f>IF(D40=N40,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB40" t="str">
-        <f>IF(E40=O40,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF40" t="str">
-        <f>IF(I40=S40,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -5637,39 +5639,39 @@
         <v>18</v>
       </c>
       <c r="X41" t="str">
-        <f>IF(A41=K41,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y41" s="6" t="str">
-        <f>IF(B41=L41,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z41" t="str">
-        <f>IF(C41=M41,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA41" t="str">
-        <f>IF(D41=N41,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB41" t="str">
-        <f>IF(E41=O41,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF41" t="str">
-        <f>IF(I41=S41,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -5738,39 +5740,39 @@
         <v>18</v>
       </c>
       <c r="X42" t="str">
-        <f>IF(A42=K42,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y42" s="6" t="str">
-        <f>IF(B42=L42,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z42" t="str">
-        <f>IF(C42=M42,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA42" t="str">
-        <f>IF(D42=N42,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB42" t="str">
-        <f>IF(E42=O42,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF42" t="str">
-        <f>IF(I42=S42,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -5839,39 +5841,39 @@
         <v>18</v>
       </c>
       <c r="X43" t="str">
-        <f>IF(A43=K43,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y43" s="6" t="str">
-        <f>IF(B43=L43,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z43" t="str">
-        <f>IF(C43=M43,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA43" t="str">
-        <f>IF(D43=N43,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB43" t="str">
-        <f>IF(E43=O43,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF43" t="str">
-        <f>IF(I43=S43,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -5940,39 +5942,39 @@
         <v>18</v>
       </c>
       <c r="X44" t="str">
-        <f>IF(A44=K44,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y44" s="6" t="str">
-        <f>IF(B44=L44,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z44" t="str">
-        <f>IF(C44=M44,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA44" t="str">
-        <f>IF(D44=N44,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB44" t="str">
-        <f>IF(E44=O44,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF44" t="str">
-        <f>IF(I44=S44,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -6041,39 +6043,39 @@
         <v>18</v>
       </c>
       <c r="X45" t="str">
-        <f>IF(A45=K45,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y45" s="6" t="str">
-        <f>IF(B45=L45,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z45" t="str">
-        <f>IF(C45=M45,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA45" t="str">
-        <f>IF(D45=N45,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB45" t="str">
-        <f>IF(E45=O45,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF45" t="str">
-        <f>IF(I45=S45,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -6142,39 +6144,39 @@
         <v>18</v>
       </c>
       <c r="X46" t="str">
-        <f>IF(A46=K46,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y46" s="6" t="str">
-        <f>IF(B46=L46,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z46" t="str">
-        <f>IF(C46=M46,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA46" t="str">
-        <f>IF(D46=N46,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB46" t="str">
-        <f>IF(E46=O46,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF46" t="str">
-        <f>IF(I46=S46,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -6243,39 +6245,39 @@
         <v>18</v>
       </c>
       <c r="X47" t="str">
-        <f>IF(A47=K47,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y47" s="6" t="str">
-        <f>IF(B47=L47,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z47" t="str">
-        <f>IF(C47=M47,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA47" t="str">
-        <f>IF(D47=N47,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB47" t="str">
-        <f>IF(E47=O47,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF47" t="str">
-        <f>IF(I47=S47,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -6344,39 +6346,39 @@
         <v>18</v>
       </c>
       <c r="X48" t="str">
-        <f>IF(A48=K48,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y48" s="6" t="str">
-        <f>IF(B48=L48,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z48" t="str">
-        <f>IF(C48=M48,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA48" t="str">
-        <f>IF(D48=N48,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB48" t="str">
-        <f>IF(E48=O48,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF48" t="str">
-        <f>IF(I48=S48,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -6445,39 +6447,39 @@
         <v>18</v>
       </c>
       <c r="X49" t="str">
-        <f>IF(A49=K49,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y49" s="6" t="str">
-        <f>IF(B49=L49,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z49" t="str">
-        <f>IF(C49=M49,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA49" t="str">
-        <f>IF(D49=N49,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB49" t="str">
-        <f>IF(E49=O49,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF49" t="str">
-        <f>IF(I49=S49,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -6546,39 +6548,39 @@
         <v>18</v>
       </c>
       <c r="X50" t="str">
-        <f>IF(A50=K50,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y50" s="6" t="str">
-        <f>IF(B50=L50,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z50" t="str">
-        <f>IF(C50=M50,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA50" t="str">
-        <f>IF(D50=N50,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB50" t="str">
-        <f>IF(E50=O50,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF50" t="str">
-        <f>IF(I50=S50,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -6647,39 +6649,39 @@
         <v>18</v>
       </c>
       <c r="X51" t="str">
-        <f>IF(A51=K51,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y51" s="6" t="str">
-        <f>IF(B51=L51,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z51" t="str">
-        <f>IF(C51=M51,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA51" t="str">
-        <f>IF(D51=N51,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB51" t="str">
-        <f>IF(E51=O51,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF51" t="str">
-        <f>IF(I51=S51,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -6748,39 +6750,39 @@
         <v>18</v>
       </c>
       <c r="X52" t="str">
-        <f>IF(A52=K52,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y52" s="6" t="str">
-        <f>IF(B52=L52,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z52" t="str">
-        <f>IF(C52=M52,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA52" t="str">
-        <f>IF(D52=N52,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB52" t="str">
-        <f>IF(E52=O52,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF52" t="str">
-        <f>IF(I52=S52,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -6849,39 +6851,39 @@
         <v>18</v>
       </c>
       <c r="X53" t="str">
-        <f>IF(A53=K53,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y53" s="6" t="str">
-        <f>IF(B53=L53,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z53" t="str">
-        <f>IF(C53=M53,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA53" t="str">
-        <f>IF(D53=N53,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB53" t="str">
-        <f>IF(E53=O53,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF53" t="str">
-        <f>IF(I53=S53,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -6950,39 +6952,39 @@
         <v>18</v>
       </c>
       <c r="X54" t="str">
-        <f>IF(A54=K54,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y54" s="6" t="str">
-        <f>IF(B54=L54,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z54" t="str">
-        <f>IF(C54=M54,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA54" t="str">
-        <f>IF(D54=N54,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB54" t="str">
-        <f>IF(E54=O54,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF54" t="str">
-        <f>IF(I54=S54,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -7051,39 +7053,39 @@
         <v>18</v>
       </c>
       <c r="X55" t="str">
-        <f>IF(A55=K55,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y55" s="6" t="str">
-        <f>IF(B55=L55,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z55" t="str">
-        <f>IF(C55=M55,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA55" t="str">
-        <f>IF(D55=N55,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB55" t="str">
-        <f>IF(E55=O55,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF55" t="str">
-        <f>IF(I55=S55,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -7152,39 +7154,39 @@
         <v>18</v>
       </c>
       <c r="X56" t="str">
-        <f>IF(A56=K56,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y56" s="6" t="str">
-        <f>IF(B56=L56,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z56" t="str">
-        <f>IF(C56=M56,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA56" t="str">
-        <f>IF(D56=N56,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB56" t="str">
-        <f>IF(E56=O56,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF56" t="str">
-        <f>IF(I56=S56,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -7253,39 +7255,39 @@
         <v>18</v>
       </c>
       <c r="X57" t="str">
-        <f>IF(A57=K57,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y57" s="6" t="str">
-        <f>IF(B57=L57,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z57" t="str">
-        <f>IF(C57=M57,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA57" t="str">
-        <f>IF(D57=N57,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB57" t="str">
-        <f>IF(E57=O57,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF57" t="str">
-        <f>IF(I57=S57,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -7354,39 +7356,39 @@
         <v>18</v>
       </c>
       <c r="X58" t="str">
-        <f>IF(A58=K58,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y58" s="6" t="str">
-        <f>IF(B58=L58,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z58" t="str">
-        <f>IF(C58=M58,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA58" t="str">
-        <f>IF(D58=N58,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB58" t="str">
-        <f>IF(E58=O58,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF58" t="str">
-        <f>IF(I58=S58,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -7455,39 +7457,39 @@
         <v>18</v>
       </c>
       <c r="X59" t="str">
-        <f>IF(A59=K59,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y59" s="6" t="str">
-        <f>IF(B59=L59,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z59" t="str">
-        <f>IF(C59=M59,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA59" t="str">
-        <f>IF(D59=N59,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB59" t="str">
-        <f>IF(E59=O59,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF59" t="str">
-        <f>IF(I59=S59,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -7556,39 +7558,39 @@
         <v>18</v>
       </c>
       <c r="X60" t="str">
-        <f>IF(A60=K60,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y60" s="6" t="str">
-        <f>IF(B60=L60,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z60" t="str">
-        <f>IF(C60=M60,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA60" t="str">
-        <f>IF(D60=N60,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB60" t="str">
-        <f>IF(E60=O60,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF60" t="str">
-        <f>IF(I60=S60,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -7657,39 +7659,39 @@
         <v>119</v>
       </c>
       <c r="X61" t="str">
-        <f>IF(A61=K61,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y61" s="6" t="str">
-        <f>IF(B61=L61,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z61" t="str">
-        <f>IF(C61=M61,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA61" t="str">
-        <f>IF(D61=N61,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB61" t="str">
-        <f>IF(E61=O61,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF61" t="str">
-        <f>IF(I61=S61,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -7758,39 +7760,39 @@
         <v>119</v>
       </c>
       <c r="X62" t="str">
-        <f>IF(A62=K62,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y62" s="6" t="str">
-        <f>IF(B62=L62,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z62" t="str">
-        <f>IF(C62=M62,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA62" t="str">
-        <f>IF(D62=N62,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB62" t="str">
-        <f>IF(E62=O62,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF62" t="str">
-        <f>IF(I62=S62,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -7859,39 +7861,39 @@
         <v>119</v>
       </c>
       <c r="X63" t="str">
-        <f>IF(A63=K63,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y63" s="6" t="str">
-        <f>IF(B63=L63,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z63" t="str">
-        <f>IF(C63=M63,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA63" t="str">
-        <f>IF(D63=N63,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB63" t="str">
-        <f>IF(E63=O63,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF63" t="str">
-        <f>IF(I63=S63,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -7960,39 +7962,39 @@
         <v>119</v>
       </c>
       <c r="X64" t="str">
-        <f>IF(A64=K64,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y64" s="6" t="str">
-        <f>IF(B64=L64,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z64" t="str">
-        <f>IF(C64=M64,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA64" t="str">
-        <f>IF(D64=N64,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB64" t="str">
-        <f>IF(E64=O64,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF64" t="str">
-        <f>IF(I64=S64,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -8061,39 +8063,39 @@
         <v>119</v>
       </c>
       <c r="X65" t="str">
-        <f>IF(A65=K65,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y65" s="6" t="str">
-        <f>IF(B65=L65,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z65" t="str">
-        <f>IF(C65=M65,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA65" t="str">
-        <f>IF(D65=N65,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB65" t="str">
-        <f>IF(E65=O65,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF65" t="str">
-        <f>IF(I65=S65,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -8162,39 +8164,39 @@
         <v>119</v>
       </c>
       <c r="X66" t="str">
-        <f>IF(A66=K66,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y66" s="6" t="str">
-        <f>IF(B66=L66,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z66" t="str">
-        <f>IF(C66=M66,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA66" t="str">
-        <f>IF(D66=N66,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB66" t="str">
-        <f>IF(E66=O66,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF66" t="str">
-        <f>IF(I66=S66,"match","error")</f>
+        <f t="shared" si="10"/>
         <v>match</v>
       </c>
     </row>
@@ -8263,39 +8265,39 @@
         <v>119</v>
       </c>
       <c r="X67" t="str">
-        <f>IF(A67=K67,"match","error")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
       <c r="Y67" s="6" t="str">
-        <f>IF(B67=L67,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="3"/>
+        <v>mismatch</v>
       </c>
       <c r="Z67" t="str">
-        <f>IF(C67=M67,"match","error")</f>
+        <f t="shared" si="4"/>
         <v>match</v>
       </c>
       <c r="AA67" t="str">
-        <f>IF(D67=N67,"match","error")</f>
+        <f t="shared" si="5"/>
         <v>match</v>
       </c>
       <c r="AB67" t="str">
-        <f>IF(E67=O67,"match","error")</f>
+        <f t="shared" si="6"/>
         <v>match</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>match</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>match</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>match</v>
       </c>
       <c r="AF67" t="str">
-        <f>IF(I67=S67,"match","error")</f>
+        <f t="shared" ref="AF67:AF102" si="11">IF(I67=S67,"match","error")</f>
         <v>match</v>
       </c>
     </row>
@@ -8364,39 +8366,39 @@
         <v>119</v>
       </c>
       <c r="X68" t="str">
-        <f>IF(A68=K68,"match","error")</f>
+        <f t="shared" ref="X68:X102" si="12">IF(A68=K68,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="Y68" s="6" t="str">
-        <f>IF(B68=L68,"match","error")</f>
-        <v>error</v>
+        <f t="shared" ref="Y68:Y102" si="13">IF(B68=L68,"match","mismatch")</f>
+        <v>mismatch</v>
       </c>
       <c r="Z68" t="str">
-        <f>IF(C68=M68,"match","error")</f>
+        <f t="shared" ref="Z68:Z102" si="14">IF(C68=M68,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="AA68" t="str">
-        <f>IF(D68=N68,"match","error")</f>
+        <f t="shared" ref="AA68:AA102" si="15">IF(D68=N68,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="AB68" t="str">
-        <f>IF(E68=O68,"match","error")</f>
+        <f t="shared" ref="AB68:AB102" si="16">IF(E68=O68,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="AC68" t="str">
-        <f t="shared" ref="AC68:AC102" si="3">IF(F68=P68,"match",F68-P68)</f>
+        <f t="shared" ref="AC68:AC102" si="17">IF(F68=P68,"match",F68-P68)</f>
         <v>match</v>
       </c>
       <c r="AD68" t="str">
-        <f t="shared" ref="AD68:AD102" si="4">IF(G68=Q68,"match",G68-Q68)</f>
+        <f t="shared" ref="AD68:AD102" si="18">IF(G68=Q68,"match",G68-Q68)</f>
         <v>match</v>
       </c>
       <c r="AE68" t="str">
-        <f t="shared" ref="AE68:AE102" si="5">IF(H68=R68,"match",H68-R68)</f>
+        <f t="shared" ref="AE68:AE102" si="19">IF(H68=R68,"match",H68-R68)</f>
         <v>match</v>
       </c>
       <c r="AF68" t="str">
-        <f>IF(I68=S68,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -8465,39 +8467,39 @@
         <v>119</v>
       </c>
       <c r="X69" t="str">
-        <f>IF(A69=K69,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y69" s="6" t="str">
-        <f>IF(B69=L69,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z69" t="str">
-        <f>IF(C69=M69,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA69" t="str">
-        <f>IF(D69=N69,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB69" t="str">
-        <f>IF(E69=O69,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF69" t="str">
-        <f>IF(I69=S69,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -8566,39 +8568,39 @@
         <v>119</v>
       </c>
       <c r="X70" t="str">
-        <f>IF(A70=K70,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y70" s="6" t="str">
-        <f>IF(B70=L70,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z70" t="str">
-        <f>IF(C70=M70,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA70" t="str">
-        <f>IF(D70=N70,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB70" t="str">
-        <f>IF(E70=O70,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF70" t="str">
-        <f>IF(I70=S70,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -8667,39 +8669,39 @@
         <v>119</v>
       </c>
       <c r="X71" t="str">
-        <f>IF(A71=K71,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y71" s="6" t="str">
-        <f>IF(B71=L71,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z71" t="str">
-        <f>IF(C71=M71,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA71" t="str">
-        <f>IF(D71=N71,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB71" t="str">
-        <f>IF(E71=O71,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF71" t="str">
-        <f>IF(I71=S71,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -8768,39 +8770,39 @@
         <v>119</v>
       </c>
       <c r="X72" t="str">
-        <f>IF(A72=K72,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y72" s="6" t="str">
-        <f>IF(B72=L72,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z72" t="str">
-        <f>IF(C72=M72,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA72" t="str">
-        <f>IF(D72=N72,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB72" t="str">
-        <f>IF(E72=O72,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF72" t="str">
-        <f>IF(I72=S72,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -8869,39 +8871,39 @@
         <v>119</v>
       </c>
       <c r="X73" t="str">
-        <f>IF(A73=K73,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y73" s="6" t="str">
-        <f>IF(B73=L73,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z73" t="str">
-        <f>IF(C73=M73,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA73" t="str">
-        <f>IF(D73=N73,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB73" t="str">
-        <f>IF(E73=O73,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF73" t="str">
-        <f>IF(I73=S73,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -8970,39 +8972,39 @@
         <v>119</v>
       </c>
       <c r="X74" t="str">
-        <f>IF(A74=K74,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y74" s="6" t="str">
-        <f>IF(B74=L74,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z74" t="str">
-        <f>IF(C74=M74,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA74" t="str">
-        <f>IF(D74=N74,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB74" t="str">
-        <f>IF(E74=O74,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF74" t="str">
-        <f>IF(I74=S74,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -9071,39 +9073,39 @@
         <v>119</v>
       </c>
       <c r="X75" t="str">
-        <f>IF(A75=K75,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y75" s="6" t="str">
-        <f>IF(B75=L75,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z75" t="str">
-        <f>IF(C75=M75,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA75" t="str">
-        <f>IF(D75=N75,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB75" t="str">
-        <f>IF(E75=O75,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF75" t="str">
-        <f>IF(I75=S75,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -9172,39 +9174,39 @@
         <v>119</v>
       </c>
       <c r="X76" t="str">
-        <f>IF(A76=K76,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y76" s="6" t="str">
-        <f>IF(B76=L76,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z76" t="str">
-        <f>IF(C76=M76,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA76" t="str">
-        <f>IF(D76=N76,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB76" t="str">
-        <f>IF(E76=O76,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF76" t="str">
-        <f>IF(I76=S76,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -9273,39 +9275,39 @@
         <v>119</v>
       </c>
       <c r="X77" t="str">
-        <f>IF(A77=K77,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y77" s="6" t="str">
-        <f>IF(B77=L77,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z77" t="str">
-        <f>IF(C77=M77,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA77" t="str">
-        <f>IF(D77=N77,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB77" t="str">
-        <f>IF(E77=O77,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF77" t="str">
-        <f>IF(I77=S77,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -9374,39 +9376,39 @@
         <v>119</v>
       </c>
       <c r="X78" t="str">
-        <f>IF(A78=K78,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y78" s="6" t="str">
-        <f>IF(B78=L78,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z78" t="str">
-        <f>IF(C78=M78,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA78" t="str">
-        <f>IF(D78=N78,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB78" t="str">
-        <f>IF(E78=O78,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF78" t="str">
-        <f>IF(I78=S78,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -9475,39 +9477,39 @@
         <v>119</v>
       </c>
       <c r="X79" t="str">
-        <f>IF(A79=K79,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y79" s="6" t="str">
-        <f>IF(B79=L79,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z79" t="str">
-        <f>IF(C79=M79,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA79" t="str">
-        <f>IF(D79=N79,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB79" t="str">
-        <f>IF(E79=O79,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF79" t="str">
-        <f>IF(I79=S79,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -9576,39 +9578,39 @@
         <v>119</v>
       </c>
       <c r="X80" t="str">
-        <f>IF(A80=K80,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y80" s="6" t="str">
-        <f>IF(B80=L80,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z80" t="str">
-        <f>IF(C80=M80,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA80" t="str">
-        <f>IF(D80=N80,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB80" t="str">
-        <f>IF(E80=O80,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF80" t="str">
-        <f>IF(I80=S80,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -9677,39 +9679,39 @@
         <v>119</v>
       </c>
       <c r="X81" t="str">
-        <f>IF(A81=K81,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y81" s="6" t="str">
-        <f>IF(B81=L81,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z81" t="str">
-        <f>IF(C81=M81,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA81" t="str">
-        <f>IF(D81=N81,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB81" t="str">
-        <f>IF(E81=O81,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF81" t="str">
-        <f>IF(I81=S81,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -9778,39 +9780,39 @@
         <v>119</v>
       </c>
       <c r="X82" t="str">
-        <f>IF(A82=K82,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y82" s="6" t="str">
-        <f>IF(B82=L82,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z82" t="str">
-        <f>IF(C82=M82,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA82" t="str">
-        <f>IF(D82=N82,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB82" t="str">
-        <f>IF(E82=O82,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF82" t="str">
-        <f>IF(I82=S82,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -9879,39 +9881,39 @@
         <v>119</v>
       </c>
       <c r="X83" t="str">
-        <f>IF(A83=K83,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y83" s="6" t="str">
-        <f>IF(B83=L83,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z83" t="str">
-        <f>IF(C83=M83,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA83" t="str">
-        <f>IF(D83=N83,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB83" t="str">
-        <f>IF(E83=O83,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF83" t="str">
-        <f>IF(I83=S83,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -9980,39 +9982,39 @@
         <v>119</v>
       </c>
       <c r="X84" t="str">
-        <f>IF(A84=K84,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y84" s="6" t="str">
-        <f>IF(B84=L84,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z84" t="str">
-        <f>IF(C84=M84,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA84" t="str">
-        <f>IF(D84=N84,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB84" t="str">
-        <f>IF(E84=O84,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF84" t="str">
-        <f>IF(I84=S84,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -10081,39 +10083,39 @@
         <v>119</v>
       </c>
       <c r="X85" t="str">
-        <f>IF(A85=K85,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y85" s="6" t="str">
-        <f>IF(B85=L85,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z85" t="str">
-        <f>IF(C85=M85,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA85" t="str">
-        <f>IF(D85=N85,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB85" t="str">
-        <f>IF(E85=O85,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF85" t="str">
-        <f>IF(I85=S85,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -10182,39 +10184,39 @@
         <v>119</v>
       </c>
       <c r="X86" t="str">
-        <f>IF(A86=K86,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y86" s="6" t="str">
-        <f>IF(B86=L86,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z86" t="str">
-        <f>IF(C86=M86,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA86" t="str">
-        <f>IF(D86=N86,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB86" t="str">
-        <f>IF(E86=O86,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF86" t="str">
-        <f>IF(I86=S86,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -10283,39 +10285,39 @@
         <v>20</v>
       </c>
       <c r="X87" t="str">
-        <f>IF(A87=K87,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y87" s="6" t="str">
-        <f>IF(B87=L87,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z87" t="str">
-        <f>IF(C87=M87,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA87" t="str">
-        <f>IF(D87=N87,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB87" t="str">
-        <f>IF(E87=O87,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF87" t="str">
-        <f>IF(I87=S87,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -10384,39 +10386,39 @@
         <v>20</v>
       </c>
       <c r="X88" t="str">
-        <f>IF(A88=K88,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y88" s="6" t="str">
-        <f>IF(B88=L88,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z88" t="str">
-        <f>IF(C88=M88,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA88" t="str">
-        <f>IF(D88=N88,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB88" t="str">
-        <f>IF(E88=O88,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF88" t="str">
-        <f>IF(I88=S88,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -10485,39 +10487,39 @@
         <v>20</v>
       </c>
       <c r="X89" t="str">
-        <f>IF(A89=K89,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y89" s="6" t="str">
-        <f>IF(B89=L89,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z89" t="str">
-        <f>IF(C89=M89,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA89" t="str">
-        <f>IF(D89=N89,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB89" t="str">
-        <f>IF(E89=O89,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF89" t="str">
-        <f>IF(I89=S89,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -10586,39 +10588,39 @@
         <v>20</v>
       </c>
       <c r="X90" t="str">
-        <f>IF(A90=K90,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y90" s="6" t="str">
-        <f>IF(B90=L90,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z90" t="str">
-        <f>IF(C90=M90,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA90" t="str">
-        <f>IF(D90=N90,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB90" t="str">
-        <f>IF(E90=O90,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF90" t="str">
-        <f>IF(I90=S90,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -10687,39 +10689,39 @@
         <v>20</v>
       </c>
       <c r="X91" t="str">
-        <f>IF(A91=K91,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y91" s="6" t="str">
-        <f>IF(B91=L91,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z91" t="str">
-        <f>IF(C91=M91,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA91" t="str">
-        <f>IF(D91=N91,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB91" t="str">
-        <f>IF(E91=O91,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF91" t="str">
-        <f>IF(I91=S91,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -10788,39 +10790,39 @@
         <v>20</v>
       </c>
       <c r="X92" t="str">
-        <f>IF(A92=K92,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y92" s="6" t="str">
-        <f>IF(B92=L92,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z92" t="str">
-        <f>IF(C92=M92,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA92" t="str">
-        <f>IF(D92=N92,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB92" t="str">
-        <f>IF(E92=O92,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF92" t="str">
-        <f>IF(I92=S92,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -10889,39 +10891,39 @@
         <v>20</v>
       </c>
       <c r="X93" t="str">
-        <f>IF(A93=K93,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y93" s="6" t="str">
-        <f>IF(B93=L93,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z93" t="str">
-        <f>IF(C93=M93,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA93" t="str">
-        <f>IF(D93=N93,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="15"/>
+        <v>mismatch</v>
       </c>
       <c r="AB93" t="str">
-        <f>IF(E93=O93,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF93" t="str">
-        <f>IF(I93=S93,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -10990,39 +10992,39 @@
         <v>20</v>
       </c>
       <c r="X94" t="str">
-        <f>IF(A94=K94,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y94" s="6" t="str">
-        <f>IF(B94=L94,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z94" t="str">
-        <f>IF(C94=M94,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA94" t="str">
-        <f>IF(D94=N94,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB94" t="str">
-        <f>IF(E94=O94,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE94" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF94" t="str">
-        <f>IF(I94=S94,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -11091,39 +11093,39 @@
         <v>20</v>
       </c>
       <c r="X95" t="str">
-        <f>IF(A95=K95,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y95" s="6" t="str">
-        <f>IF(B95=L95,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z95" t="str">
-        <f>IF(C95=M95,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA95" t="str">
-        <f>IF(D95=N95,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB95" t="str">
-        <f>IF(E95=O95,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE95" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF95" t="str">
-        <f>IF(I95=S95,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -11192,39 +11194,39 @@
         <v>20</v>
       </c>
       <c r="X96" t="str">
-        <f>IF(A96=K96,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y96" s="6" t="str">
-        <f>IF(B96=L96,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z96" t="str">
-        <f>IF(C96=M96,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA96" t="str">
-        <f>IF(D96=N96,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB96" t="str">
-        <f>IF(E96=O96,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF96" t="str">
-        <f>IF(I96=S96,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -11293,39 +11295,39 @@
         <v>20</v>
       </c>
       <c r="X97" t="str">
-        <f>IF(A97=K97,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y97" s="6" t="str">
-        <f>IF(B97=L97,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z97" t="str">
-        <f>IF(C97=M97,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA97" t="str">
-        <f>IF(D97=N97,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB97" t="str">
-        <f>IF(E97=O97,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF97" t="str">
-        <f>IF(I97=S97,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -11394,39 +11396,39 @@
         <v>119</v>
       </c>
       <c r="X98" t="str">
-        <f>IF(A98=K98,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y98" s="6" t="str">
-        <f>IF(B98=L98,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z98" t="str">
-        <f>IF(C98=M98,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA98" t="str">
-        <f>IF(D98=N98,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB98" t="str">
-        <f>IF(E98=O98,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF98" t="str">
-        <f>IF(I98=S98,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -11495,39 +11497,39 @@
         <v>119</v>
       </c>
       <c r="X99" t="str">
-        <f>IF(A99=K99,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y99" s="6" t="str">
-        <f>IF(B99=L99,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z99" t="str">
-        <f>IF(C99=M99,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA99" t="str">
-        <f>IF(D99=N99,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB99" t="str">
-        <f>IF(E99=O99,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF99" t="str">
-        <f>IF(I99=S99,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -11596,39 +11598,39 @@
         <v>119</v>
       </c>
       <c r="X100" t="str">
-        <f>IF(A100=K100,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y100" s="6" t="str">
-        <f>IF(B100=L100,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z100" t="str">
-        <f>IF(C100=M100,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA100" t="str">
-        <f>IF(D100=N100,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB100" t="str">
-        <f>IF(E100=O100,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF100" t="str">
-        <f>IF(I100=S100,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -11697,39 +11699,39 @@
         <v>119</v>
       </c>
       <c r="X101" t="str">
-        <f>IF(A101=K101,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y101" s="6" t="str">
-        <f>IF(B101=L101,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z101" t="str">
-        <f>IF(C101=M101,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA101" t="str">
-        <f>IF(D101=N101,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB101" t="str">
-        <f>IF(E101=O101,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF101" t="str">
-        <f>IF(I101=S101,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -11798,39 +11800,39 @@
         <v>119</v>
       </c>
       <c r="X102" t="str">
-        <f>IF(A102=K102,"match","error")</f>
+        <f t="shared" si="12"/>
         <v>match</v>
       </c>
       <c r="Y102" s="6" t="str">
-        <f>IF(B102=L102,"match","error")</f>
-        <v>error</v>
+        <f t="shared" si="13"/>
+        <v>mismatch</v>
       </c>
       <c r="Z102" t="str">
-        <f>IF(C102=M102,"match","error")</f>
+        <f t="shared" si="14"/>
         <v>match</v>
       </c>
       <c r="AA102" t="str">
-        <f>IF(D102=N102,"match","error")</f>
+        <f t="shared" si="15"/>
         <v>match</v>
       </c>
       <c r="AB102" t="str">
-        <f>IF(E102=O102,"match","error")</f>
+        <f t="shared" si="16"/>
         <v>match</v>
       </c>
       <c r="AC102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>match</v>
       </c>
       <c r="AD102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>match</v>
       </c>
       <c r="AE102" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>match</v>
       </c>
       <c r="AF102" t="str">
-        <f>IF(I102=S102,"match","error")</f>
+        <f t="shared" si="11"/>
         <v>match</v>
       </c>
     </row>
@@ -11849,7 +11851,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11860,6 +11862,7 @@
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11986,23 +11989,23 @@
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" t="str">
-        <f>IF(A3=J3,"match","ERROR")</f>
+        <f>IF(A3=J3,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="R3" s="6" t="str">
-        <f>IF(B3=K3,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" ref="R3:U4" si="0">IF(B3=K3,"match","mismatch")</f>
+        <v>mismatch</v>
       </c>
       <c r="S3" t="str">
-        <f>IF(C3=L3,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="T3" t="str">
-        <f>IF(D3=M3,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="U3" t="str">
-        <f>IF(E3=N3,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V3" s="9">
@@ -12056,23 +12059,23 @@
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" t="str">
-        <f>IF(A4=J4,"match","ERROR")</f>
+        <f>IF(A4=J4,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="R4" s="6" t="str">
-        <f>IF(B4=K4,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="S4" t="str">
-        <f>IF(C4=L4,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="T4" t="str">
-        <f>IF(D4=M4,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="U4" t="str">
-        <f>IF(E4=N4,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V4" t="str">
@@ -12126,7 +12129,7 @@
   <dimension ref="A1:AB247"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="W3" sqref="W3:W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12141,6 +12144,7 @@
     <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3" style="14" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12298,31 +12302,31 @@
       </c>
       <c r="U3" s="14"/>
       <c r="V3" t="str">
-        <f>IF(A3=K3,"match","ERROR")</f>
+        <f>IF(A3=K3,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="W3" s="6" t="str">
-        <f>IF(B3=L3,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" ref="W3:Z13" si="0">IF(B3=L3,"match","mismatch")</f>
+        <v>mismatch</v>
       </c>
       <c r="X3" t="str">
-        <f>IF(C3=M3,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Y3" t="str">
-        <f>IF(D3=N3,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Z3" t="str">
-        <f>IF(E3=O3,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA3" s="12">
-        <f>IF(F3=P3,"match",F3-P3)</f>
+        <f t="shared" ref="AA3:AA13" si="1">IF(F3=P3,"match",F3-P3)</f>
         <v>3.9936010054475446E-10</v>
       </c>
       <c r="AB3" t="str">
-        <f>IF(G3=Q3,"match","ERROR")</f>
+        <f t="shared" ref="AB3:AB13" si="2">IF(G3=Q3,"match","ERROR")</f>
         <v>match</v>
       </c>
     </row>
@@ -12387,31 +12391,31 @@
       </c>
       <c r="U4" s="14"/>
       <c r="V4" t="str">
-        <f>IF(A4=K4,"match","ERROR")</f>
+        <f t="shared" ref="V4:V13" si="3">IF(A4=K4,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="W4" s="6" t="str">
-        <f>IF(B4=L4,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="X4" t="str">
-        <f>IF(C4=M4,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Y4" t="str">
-        <f>IF(D4=N4,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Z4" t="str">
-        <f>IF(E4=O4,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA4" s="12">
-        <f>IF(F4=P4,"match",F4-P4)</f>
+        <f t="shared" si="1"/>
         <v>5.837197392111193E-11</v>
       </c>
       <c r="AB4" t="str">
-        <f>IF(G4=Q4,"match","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
     </row>
@@ -12476,31 +12480,31 @@
       </c>
       <c r="U5" s="14"/>
       <c r="V5" t="str">
-        <f>IF(A5=K5,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="W5" s="6" t="str">
-        <f>IF(B5=L5,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="X5" t="str">
-        <f>IF(C5=M5,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Y5" t="str">
-        <f>IF(D5=N5,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Z5" t="str">
-        <f>IF(E5=O5,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA5" s="12">
-        <f>IF(F5=P5,"match",F5-P5)</f>
+        <f t="shared" si="1"/>
         <v>-4.1518632976078607E-10</v>
       </c>
       <c r="AB5" t="str">
-        <f>IF(G5=Q5,"match","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
     </row>
@@ -12565,31 +12569,31 @@
       </c>
       <c r="U6" s="14"/>
       <c r="V6" t="str">
-        <f>IF(A6=K6,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="W6" s="6" t="str">
-        <f>IF(B6=L6,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="X6" t="str">
-        <f>IF(C6=M6,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Y6" t="str">
-        <f>IF(D6=N6,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Z6" t="str">
-        <f>IF(E6=O6,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA6" s="12">
-        <f>IF(F6=P6,"match",F6-P6)</f>
+        <f t="shared" si="1"/>
         <v>-1.78023817909434E-10</v>
       </c>
       <c r="AB6" t="str">
-        <f>IF(G6=Q6,"match","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
     </row>
@@ -12654,31 +12658,31 @@
       </c>
       <c r="U7" s="14"/>
       <c r="V7" t="str">
-        <f>IF(A7=K7,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="W7" s="6" t="str">
-        <f>IF(B7=L7,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="X7" t="str">
-        <f>IF(C7=M7,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Y7" t="str">
-        <f>IF(D7=N7,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Z7" t="str">
-        <f>IF(E7=O7,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA7" s="12">
-        <f>IF(F7=P7,"match",F7-P7)</f>
+        <f t="shared" si="1"/>
         <v>-2.3432311646587323E-10</v>
       </c>
       <c r="AB7" t="str">
-        <f>IF(G7=Q7,"match","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
     </row>
@@ -12743,31 +12747,31 @@
       </c>
       <c r="U8" s="14"/>
       <c r="V8" t="str">
-        <f>IF(A8=K8,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="W8" s="6" t="str">
-        <f>IF(B8=L8,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="X8" t="str">
-        <f>IF(C8=M8,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Y8" t="str">
-        <f>IF(D8=N8,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Z8" t="str">
-        <f>IF(E8=O8,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA8" s="12">
-        <f>IF(F8=P8,"match",F8-P8)</f>
+        <f t="shared" si="1"/>
         <v>-3.0738167566823904E-10</v>
       </c>
       <c r="AB8" t="str">
-        <f>IF(G8=Q8,"match","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
     </row>
@@ -12832,31 +12836,31 @@
       </c>
       <c r="U9" s="14"/>
       <c r="V9" t="str">
-        <f>IF(A9=K9,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="W9" s="6" t="str">
-        <f>IF(B9=L9,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="X9" t="str">
-        <f>IF(C9=M9,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Y9" t="str">
-        <f>IF(D9=N9,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Z9" t="str">
-        <f>IF(E9=O9,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA9" s="12">
-        <f>IF(F9=P9,"match",F9-P9)</f>
+        <f t="shared" si="1"/>
         <v>2.9688251856896386E-11</v>
       </c>
       <c r="AB9" t="str">
-        <f>IF(G9=Q9,"match","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
     </row>
@@ -12921,31 +12925,31 @@
       </c>
       <c r="U10" s="14"/>
       <c r="V10" t="str">
-        <f>IF(A10=K10,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="W10" s="6" t="str">
-        <f>IF(B10=L10,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="X10" t="str">
-        <f>IF(C10=M10,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Y10" t="str">
-        <f>IF(D10=N10,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Z10" t="str">
-        <f>IF(E10=O10,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA10" s="12">
-        <f>IF(F10=P10,"match",F10-P10)</f>
+        <f t="shared" si="1"/>
         <v>1.9610002510717095E-10</v>
       </c>
       <c r="AB10" t="str">
-        <f>IF(G10=Q10,"match","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
     </row>
@@ -13010,31 +13014,31 @@
       </c>
       <c r="U11" s="14"/>
       <c r="V11" t="str">
-        <f>IF(A11=K11,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="W11" s="6" t="str">
-        <f>IF(B11=L11,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="X11" t="str">
-        <f>IF(C11=M11,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Y11" t="str">
-        <f>IF(D11=N11,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Z11" t="str">
-        <f>IF(E11=O11,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA11" s="12">
-        <f>IF(F11=P11,"match",F11-P11)</f>
+        <f t="shared" si="1"/>
         <v>3.356166455859011E-10</v>
       </c>
       <c r="AB11" t="str">
-        <f>IF(G11=Q11,"match","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
     </row>
@@ -13099,31 +13103,31 @@
       </c>
       <c r="U12" s="14"/>
       <c r="V12" t="str">
-        <f>IF(A12=K12,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="W12" s="6" t="str">
-        <f>IF(B12=L12,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="X12" t="str">
-        <f>IF(C12=M12,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Y12" t="str">
-        <f>IF(D12=N12,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Z12" t="str">
-        <f>IF(E12=O12,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA12" s="12">
-        <f>IF(F12=P12,"match",F12-P12)</f>
+        <f t="shared" si="1"/>
         <v>1.9013013385915656E-10</v>
       </c>
       <c r="AB12" t="str">
-        <f>IF(G12=Q12,"match","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
     </row>
@@ -13186,31 +13190,31 @@
         <v>18</v>
       </c>
       <c r="V13" t="str">
-        <f>IF(A13=K13,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="W13" s="6" t="str">
-        <f>IF(B13=L13,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="X13" t="str">
-        <f>IF(C13=M13,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Y13" t="str">
-        <f>IF(D13=N13,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="Z13" t="str">
-        <f>IF(E13=O13,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="AA13" s="12">
-        <f>IF(F13=P13,"match",F13-P13)</f>
+        <f t="shared" si="1"/>
         <v>1.5042522782948708E-10</v>
       </c>
       <c r="AB13" t="str">
-        <f>IF(G13=Q13,"match","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>match</v>
       </c>
     </row>
@@ -14382,7 +14386,7 @@
   <dimension ref="A1:Y387"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14393,6 +14397,7 @@
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="14" customWidth="1"/>
     <col min="18" max="18" width="3" style="14" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14532,31 +14537,31 @@
         <v>3.5693305099999999</v>
       </c>
       <c r="S3" t="str">
-        <f>IF(A3=K3,"match","ERROR")</f>
+        <f>IF(A3=K3,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="T3" s="6" t="str">
-        <f>IF(B3=L3,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" ref="T3:W14" si="0">IF(B3=L3,"match","mismatch")</f>
+        <v>mismatch</v>
       </c>
       <c r="U3" t="str">
-        <f>IF(C3=M3,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V3" t="str">
-        <f>IF(D3=N3,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W3" t="str">
-        <f>IF(E3=O3,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X3" s="12">
-        <f>IF(F3=P3,"match",F3-P3)</f>
+        <f t="shared" ref="X3:X14" si="1">IF(F3=P3,"match",F3-P3)</f>
         <v>-8.9205514086643234E-9</v>
       </c>
       <c r="Y3" s="12">
-        <f>IF(G3=Q3,"match",G3-Q3)</f>
+        <f t="shared" ref="Y3:Y14" si="2">IF(G3=Q3,"match",G3-Q3)</f>
         <v>3.9936010054475446E-10</v>
       </c>
     </row>
@@ -14610,31 +14615,31 @@
         <v>4.7287440319999998</v>
       </c>
       <c r="S4" t="str">
-        <f>IF(A4=K4,"match","ERROR")</f>
+        <f t="shared" ref="S4:S14" si="3">IF(A4=K4,"match","mismatch")</f>
         <v>match</v>
       </c>
       <c r="T4" s="6" t="str">
-        <f>IF(B4=L4,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="U4" t="str">
-        <f>IF(C4=M4,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V4" t="str">
-        <f>IF(D4=N4,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W4" t="str">
-        <f>IF(E4=O4,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X4" s="12">
-        <f>IF(F4=P4,"match",F4-P4)</f>
+        <f t="shared" si="1"/>
         <v>1.8156924852519296E-9</v>
       </c>
       <c r="Y4" s="12">
-        <f>IF(G4=Q4,"match",G4-Q4)</f>
+        <f t="shared" si="2"/>
         <v>-1.78023817909434E-10</v>
       </c>
     </row>
@@ -14688,31 +14693,31 @@
         <v>1.7789210520000001</v>
       </c>
       <c r="S5" t="str">
-        <f>IF(A5=K5,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="T5" s="6" t="str">
-        <f>IF(B5=L5,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="U5" t="str">
-        <f>IF(C5=M5,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V5" t="str">
-        <f>IF(D5=N5,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W5" t="str">
-        <f>IF(E5=O5,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X5" s="12">
-        <f>IF(F5=P5,"match",F5-P5)</f>
+        <f t="shared" si="1"/>
         <v>-1.6060880625445861E-8</v>
       </c>
       <c r="Y5" s="12">
-        <f>IF(G5=Q5,"match",G5-Q5)</f>
+        <f t="shared" si="2"/>
         <v>-4.1518632976078607E-10</v>
       </c>
     </row>
@@ -14766,31 +14771,31 @@
         <v>5.3744153429999999</v>
       </c>
       <c r="S6" t="str">
-        <f>IF(A6=K6,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="T6" s="6" t="str">
-        <f>IF(B6=L6,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="U6" t="str">
-        <f>IF(C6=M6,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V6" t="str">
-        <f>IF(D6=N6,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W6" t="str">
-        <f>IF(E6=O6,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X6" s="12">
-        <f>IF(F6=P6,"match",F6-P6)</f>
+        <f t="shared" si="1"/>
         <v>-2.0365519048937131E-8</v>
       </c>
       <c r="Y6" s="12">
-        <f>IF(G6=Q6,"match",G6-Q6)</f>
+        <f t="shared" si="2"/>
         <v>2.517452912798035E-11</v>
       </c>
     </row>
@@ -14844,31 +14849,31 @@
         <v>5.5059483499999997</v>
       </c>
       <c r="S7" t="str">
-        <f>IF(A7=K7,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="T7" s="6" t="str">
-        <f>IF(B7=L7,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="U7" t="str">
-        <f>IF(C7=M7,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V7" t="str">
-        <f>IF(D7=N7,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W7" t="str">
-        <f>IF(E7=O7,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X7" s="12">
-        <f>IF(F7=P7,"match",F7-P7)</f>
+        <f t="shared" si="1"/>
         <v>-2.6995962798537221E-8</v>
       </c>
       <c r="Y7" s="12">
-        <f>IF(G7=Q7,"match",G7-Q7)</f>
+        <f t="shared" si="2"/>
         <v>1.1961898138679317E-10</v>
       </c>
     </row>
@@ -14922,31 +14927,31 @@
         <v>4.3013299309999997</v>
       </c>
       <c r="S8" t="str">
-        <f>IF(A8=K8,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="T8" s="6" t="str">
-        <f>IF(B8=L8,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="U8" t="str">
-        <f>IF(C8=M8,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V8" t="str">
-        <f>IF(D8=N8,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W8" t="str">
-        <f>IF(E8=O8,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X8" s="12">
-        <f>IF(F8=P8,"match",F8-P8)</f>
+        <f t="shared" si="1"/>
         <v>-2.000319909711834E-8</v>
       </c>
       <c r="Y8" s="12">
-        <f>IF(G8=Q8,"match",G8-Q8)</f>
+        <f t="shared" si="2"/>
         <v>3.1209612672000731E-10</v>
       </c>
     </row>
@@ -15000,31 +15005,31 @@
         <v>1.1970097689999999</v>
       </c>
       <c r="S9" t="str">
-        <f>IF(A9=K9,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="T9" s="6" t="str">
-        <f>IF(B9=L9,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="U9" t="str">
-        <f>IF(C9=M9,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V9" t="str">
-        <f>IF(D9=N9,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W9" t="str">
-        <f>IF(E9=O9,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X9" s="12">
-        <f>IF(F9=P9,"match",F9-P9)</f>
+        <f t="shared" si="1"/>
         <v>4.9974687499343418E-8</v>
       </c>
       <c r="Y9" s="12">
-        <f>IF(G9=Q9,"match",G9-Q9)</f>
+        <f t="shared" si="2"/>
         <v>-1.5824874743941564E-10</v>
       </c>
     </row>
@@ -15078,31 +15083,31 @@
         <v>9.8186470809999999</v>
       </c>
       <c r="S10" t="str">
-        <f>IF(A10=K10,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="T10" s="6" t="str">
-        <f>IF(B10=L10,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="U10" t="str">
-        <f>IF(C10=M10,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V10" t="str">
-        <f>IF(D10=N10,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W10" t="str">
-        <f>IF(E10=O10,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X10" s="12">
-        <f>IF(F10=P10,"match",F10-P10)</f>
+        <f t="shared" si="1"/>
         <v>4.1083012547460385E-8</v>
       </c>
       <c r="Y10" s="12">
-        <f>IF(G10=Q10,"match",G10-Q10)</f>
+        <f t="shared" si="2"/>
         <v>-2.9698021819513087E-10</v>
       </c>
     </row>
@@ -15156,31 +15161,31 @@
         <v>7.983064937</v>
       </c>
       <c r="S11" t="str">
-        <f>IF(A11=K11,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="T11" s="6" t="str">
-        <f>IF(B11=L11,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="U11" t="str">
-        <f>IF(C11=M11,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V11" t="str">
-        <f>IF(D11=N11,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W11" t="str">
-        <f>IF(E11=O11,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X11" s="12">
-        <f>IF(F11=P11,"match",F11-P11)</f>
+        <f t="shared" si="1"/>
         <v>-4.0393729250354227E-8</v>
       </c>
       <c r="Y11" s="12">
-        <f>IF(G11=Q11,"match",G11-Q11)</f>
+        <f t="shared" si="2"/>
         <v>-8.5631057800128474E-11</v>
       </c>
     </row>
@@ -15234,31 +15239,31 @@
         <v>4.7834742920000002</v>
       </c>
       <c r="S12" t="str">
-        <f>IF(A12=K12,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="T12" s="6" t="str">
-        <f>IF(B12=L12,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="U12" t="str">
-        <f>IF(C12=M12,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V12" t="str">
-        <f>IF(D12=N12,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W12" t="str">
-        <f>IF(E12=O12,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X12" s="12">
-        <f>IF(F12=P12,"match",F12-P12)</f>
+        <f t="shared" si="1"/>
         <v>-4.3406771510490216E-8</v>
       </c>
       <c r="Y12" s="12">
-        <f>IF(G12=Q12,"match",G12-Q12)</f>
+        <f t="shared" si="2"/>
         <v>3.5195490966088983E-10</v>
       </c>
     </row>
@@ -15312,31 +15317,31 @@
         <v>3.9661983410000001</v>
       </c>
       <c r="S13" t="str">
-        <f>IF(A13=K13,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="T13" s="6" t="str">
-        <f>IF(B13=L13,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="U13" t="str">
-        <f>IF(C13=M13,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V13" t="str">
-        <f>IF(D13=N13,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W13" t="str">
-        <f>IF(E13=O13,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X13" s="12">
-        <f>IF(F13=P13,"match",F13-P13)</f>
+        <f t="shared" si="1"/>
         <v>-1.1817405720648821E-8</v>
       </c>
       <c r="Y13" s="12">
-        <f>IF(G13=Q13,"match",G13-Q13)</f>
+        <f t="shared" si="2"/>
         <v>1.7081447367672808E-11</v>
       </c>
     </row>
@@ -15390,31 +15395,31 @@
         <v>7.0615980860000001</v>
       </c>
       <c r="S14" t="str">
-        <f>IF(A14=K14,"match","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>match</v>
       </c>
       <c r="T14" s="6" t="str">
-        <f>IF(B14=L14,"match","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="0"/>
+        <v>mismatch</v>
       </c>
       <c r="U14" t="str">
-        <f>IF(C14=M14,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="V14" t="str">
-        <f>IF(D14=N14,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="W14" t="str">
-        <f>IF(E14=O14,"match","ERROR")</f>
+        <f t="shared" si="0"/>
         <v>match</v>
       </c>
       <c r="X14" s="12">
-        <f>IF(F14=P14,"match",F14-P14)</f>
+        <f t="shared" si="1"/>
         <v>3.3832066037575714E-8</v>
       </c>
       <c r="Y14" s="12">
-        <f>IF(G14=Q14,"match",G14-Q14)</f>
+        <f t="shared" si="2"/>
         <v>-3.879119248040297E-10</v>
       </c>
     </row>

--- a/data/metric_data-compare.xlsx
+++ b/data/metric_data-compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06d335bcba30d7c9/MSc Individual Project - SWT KG/iteration11/City-MSc-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{64AC38A9-2F7C-48E1-9E63-848BF6AFEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C24160-D4B2-492E-B6EE-DC8A8F220F49}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{64AC38A9-2F7C-48E1-9E63-848BF6AFEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15598A92-D5EB-49F8-91B7-85CDFC088CB8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="207">
   <si>
-    <t>Original Test Input Data</t>
-  </si>
-  <si>
     <t>Replicated data</t>
   </si>
   <si>
@@ -654,6 +651,9 @@
   </si>
   <si>
     <t>decimal place error</t>
+  </si>
+  <si>
+    <t>Original Test Input Data Expected Results</t>
   </si>
 </sst>
 </file>
@@ -1573,22 +1573,22 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1601,17 +1601,19 @@
   <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE23" sqref="AE23"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5703125" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
@@ -1619,126 +1621,129 @@
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" customWidth="1"/>
     <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.5703125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
     <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC1" s="7"/>
       <c r="AD1" s="7"/>
       <c r="AE1" s="7"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="U2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="V2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1747,7 +1752,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>21</v>
@@ -1762,19 +1767,19 @@
         <v>31.524388179999999</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3">
         <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3">
         <v>21</v>
@@ -1789,16 +1794,16 @@
         <v>31.524388179999999</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T3">
         <v>1.5</v>
       </c>
       <c r="U3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" t="s">
         <v>17</v>
-      </c>
-      <c r="V3" t="s">
-        <v>18</v>
       </c>
       <c r="X3" t="str">
         <f>IF(A3=K3,"match","mismatch")</f>
@@ -1839,7 +1844,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1848,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>21</v>
@@ -1863,19 +1868,19 @@
         <v>32.187194550000001</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M4">
         <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4">
         <v>21</v>
@@ -1890,16 +1895,16 @@
         <v>32.187194550000001</v>
       </c>
       <c r="S4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T4">
         <v>1.5</v>
       </c>
       <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" t="s">
         <v>17</v>
-      </c>
-      <c r="V4" t="s">
-        <v>18</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" ref="X4:X67" si="2">IF(A4=K4,"match","mismatch")</f>
@@ -1940,7 +1945,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1949,7 +1954,7 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>26</v>
@@ -1958,25 +1963,25 @@
         <v>776.73958970000001</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>45.46637492</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M5">
         <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5">
         <v>26</v>
@@ -1985,22 +1990,22 @@
         <v>776.73958970000001</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R5">
         <v>45.46637492</v>
       </c>
       <c r="S5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5">
         <v>1.5</v>
       </c>
       <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" t="s">
         <v>17</v>
-      </c>
-      <c r="V5" t="s">
-        <v>18</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="2"/>
@@ -2041,7 +2046,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2050,7 +2055,7 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>26</v>
@@ -2065,19 +2070,19 @@
         <v>17.93460507</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6">
         <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6">
         <v>26</v>
@@ -2092,16 +2097,16 @@
         <v>17.93460507</v>
       </c>
       <c r="S6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T6">
         <v>1.5</v>
       </c>
       <c r="U6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" t="s">
         <v>17</v>
-      </c>
-      <c r="V6" t="s">
-        <v>18</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="2"/>
@@ -2142,7 +2147,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2151,7 +2156,7 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>23</v>
@@ -2166,19 +2171,19 @@
         <v>23.99313931</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M7">
         <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7">
         <v>23</v>
@@ -2193,16 +2198,16 @@
         <v>23.99313931</v>
       </c>
       <c r="S7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T7">
         <v>1.5</v>
       </c>
       <c r="U7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" t="s">
         <v>17</v>
-      </c>
-      <c r="V7" t="s">
-        <v>18</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="2"/>
@@ -2243,7 +2248,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2252,7 +2257,7 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>23</v>
@@ -2267,19 +2272,19 @@
         <v>21.383485310000001</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M8">
         <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8">
         <v>23</v>
@@ -2294,16 +2299,16 @@
         <v>21.383485310000001</v>
       </c>
       <c r="S8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T8">
         <v>1.5</v>
       </c>
       <c r="U8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" t="s">
         <v>17</v>
-      </c>
-      <c r="V8" t="s">
-        <v>18</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="2"/>
@@ -2344,7 +2349,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2353,7 +2358,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>18</v>
@@ -2362,25 +2367,25 @@
         <v>718.32027749999997</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>36.489079680000003</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M9">
         <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9">
         <v>18</v>
@@ -2389,22 +2394,22 @@
         <v>718.32027749999997</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R9">
         <v>36.489079680000003</v>
       </c>
       <c r="S9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T9">
         <v>1.5</v>
       </c>
       <c r="U9" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" t="s">
         <v>17</v>
-      </c>
-      <c r="V9" t="s">
-        <v>18</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="2"/>
@@ -2445,7 +2450,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2454,7 +2459,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>18</v>
@@ -2469,19 +2474,19 @@
         <v>26.253778310000001</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10">
         <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10">
         <v>18</v>
@@ -2496,16 +2501,16 @@
         <v>26.253778310000001</v>
       </c>
       <c r="S10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T10">
         <v>1.5</v>
       </c>
       <c r="U10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" t="s">
         <v>17</v>
-      </c>
-      <c r="V10" t="s">
-        <v>18</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="2"/>
@@ -2546,7 +2551,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2555,7 +2560,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>28</v>
@@ -2570,19 +2575,19 @@
         <v>27.965040550000001</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M11">
         <v>59</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11">
         <v>28</v>
@@ -2597,16 +2602,16 @@
         <v>27.965040550000001</v>
       </c>
       <c r="S11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T11">
         <v>1.5</v>
       </c>
       <c r="U11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" t="s">
         <v>17</v>
-      </c>
-      <c r="V11" t="s">
-        <v>18</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="2"/>
@@ -2647,7 +2652,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2656,7 +2661,7 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>28</v>
@@ -2671,19 +2676,19 @@
         <v>45.107254429999998</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M12">
         <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O12">
         <v>28</v>
@@ -2698,16 +2703,16 @@
         <v>45.107254429999998</v>
       </c>
       <c r="S12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T12">
         <v>1.5</v>
       </c>
       <c r="U12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" t="s">
         <v>17</v>
-      </c>
-      <c r="V12" t="s">
-        <v>18</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="2"/>
@@ -2748,7 +2753,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2757,7 +2762,7 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>32</v>
@@ -2772,19 +2777,19 @@
         <v>26.64438535</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O13">
         <v>32</v>
@@ -2799,16 +2804,16 @@
         <v>26.64438535</v>
       </c>
       <c r="S13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T13">
         <v>1.5</v>
       </c>
       <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" t="s">
         <v>17</v>
-      </c>
-      <c r="V13" t="s">
-        <v>18</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="2"/>
@@ -2849,7 +2854,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2858,7 +2863,7 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>32</v>
@@ -2867,25 +2872,25 @@
         <v>738.77034019999996</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>26.77315231</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M14">
         <v>35</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O14">
         <v>32</v>
@@ -2894,22 +2899,22 @@
         <v>738.77034019999996</v>
       </c>
       <c r="Q14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R14">
         <v>26.77315231</v>
       </c>
       <c r="S14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T14">
         <v>1.5</v>
       </c>
       <c r="U14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" t="s">
         <v>17</v>
-      </c>
-      <c r="V14" t="s">
-        <v>18</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="2"/>
@@ -2950,7 +2955,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2959,7 +2964,7 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>18</v>
@@ -2974,19 +2979,19 @@
         <v>17.379776</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M15">
         <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15">
         <v>18</v>
@@ -3001,16 +3006,16 @@
         <v>17.379776</v>
       </c>
       <c r="S15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T15">
         <v>1.5</v>
       </c>
       <c r="U15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" t="s">
         <v>17</v>
-      </c>
-      <c r="V15" t="s">
-        <v>18</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="2"/>
@@ -3051,7 +3056,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3060,7 +3065,7 @@
         <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>18</v>
@@ -3069,25 +3074,25 @@
         <v>637.21351070000003</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>13.32374299</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M16">
         <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O16">
         <v>18</v>
@@ -3096,22 +3101,22 @@
         <v>637.21351070000003</v>
       </c>
       <c r="Q16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R16">
         <v>13.32374299</v>
       </c>
       <c r="S16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T16">
         <v>1.5</v>
       </c>
       <c r="U16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" t="s">
         <v>17</v>
-      </c>
-      <c r="V16" t="s">
-        <v>18</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="2"/>
@@ -3152,7 +3157,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3161,7 +3166,7 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>38</v>
@@ -3170,25 +3175,25 @@
         <v>842.31310459999997</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>27.601181319999998</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M17">
         <v>45</v>
       </c>
       <c r="N17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O17">
         <v>38</v>
@@ -3197,22 +3202,22 @@
         <v>842.31310459999997</v>
       </c>
       <c r="Q17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R17">
         <v>27.601181319999998</v>
       </c>
       <c r="S17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T17">
         <v>1.5</v>
       </c>
       <c r="U17" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" t="s">
         <v>17</v>
-      </c>
-      <c r="V17" t="s">
-        <v>18</v>
       </c>
       <c r="X17" t="str">
         <f t="shared" si="2"/>
@@ -3253,7 +3258,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3262,7 +3267,7 @@
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>38</v>
@@ -3277,19 +3282,19 @@
         <v>43.872996370000003</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M18">
         <v>45</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O18">
         <v>38</v>
@@ -3304,16 +3309,16 @@
         <v>43.872996370000003</v>
       </c>
       <c r="S18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T18">
         <v>1.5</v>
       </c>
       <c r="U18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" t="s">
         <v>17</v>
-      </c>
-      <c r="V18" t="s">
-        <v>18</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" si="2"/>
@@ -3354,7 +3359,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3363,7 +3368,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>22</v>
@@ -3378,19 +3383,19 @@
         <v>38.23867182</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M19">
         <v>19</v>
       </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O19">
         <v>22</v>
@@ -3405,16 +3410,16 @@
         <v>38.23867182</v>
       </c>
       <c r="S19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T19">
         <v>1.5</v>
       </c>
       <c r="U19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" t="s">
         <v>17</v>
-      </c>
-      <c r="V19" t="s">
-        <v>18</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="2"/>
@@ -3455,7 +3460,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -3464,7 +3469,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>22</v>
@@ -3479,19 +3484,19 @@
         <v>36.000941849999997</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M20">
         <v>19</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O20">
         <v>22</v>
@@ -3506,16 +3511,16 @@
         <v>36.000941849999997</v>
       </c>
       <c r="S20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T20">
         <v>1.5</v>
       </c>
       <c r="U20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V20" t="s">
         <v>17</v>
-      </c>
-      <c r="V20" t="s">
-        <v>18</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" si="2"/>
@@ -3556,7 +3561,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3565,7 +3570,7 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -3580,19 +3585,19 @@
         <v>21.07063935</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M21">
         <v>50</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O21">
         <v>19</v>
@@ -3607,16 +3612,16 @@
         <v>21.07063935</v>
       </c>
       <c r="S21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T21">
         <v>1.5</v>
       </c>
       <c r="U21" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" t="s">
         <v>17</v>
-      </c>
-      <c r="V21" t="s">
-        <v>18</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" si="2"/>
@@ -3657,7 +3662,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -3666,7 +3671,7 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>19</v>
@@ -3675,25 +3680,25 @@
         <v>835.03908320000005</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>32.617227479999997</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M22">
         <v>50</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O22">
         <v>19</v>
@@ -3702,22 +3707,22 @@
         <v>835.03908320000005</v>
       </c>
       <c r="Q22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R22">
         <v>32.617227479999997</v>
       </c>
       <c r="S22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T22">
         <v>1.5</v>
       </c>
       <c r="U22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" t="s">
         <v>17</v>
-      </c>
-      <c r="V22" t="s">
-        <v>18</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" si="2"/>
@@ -3758,7 +3763,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3767,7 +3772,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -3782,19 +3787,19 @@
         <v>21.848031670000001</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M23">
         <v>38</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O23">
         <v>26</v>
@@ -3809,16 +3814,16 @@
         <v>21.848031670000001</v>
       </c>
       <c r="S23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T23">
         <v>1.5</v>
       </c>
       <c r="U23" t="s">
+        <v>16</v>
+      </c>
+      <c r="V23" t="s">
         <v>17</v>
-      </c>
-      <c r="V23" t="s">
-        <v>18</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" si="2"/>
@@ -3859,7 +3864,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -3868,7 +3873,7 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E24">
         <v>26</v>
@@ -3883,19 +3888,19 @@
         <v>27.232011400000001</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M24">
         <v>38</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O24">
         <v>26</v>
@@ -3910,16 +3915,16 @@
         <v>27.232011400000001</v>
       </c>
       <c r="S24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T24">
         <v>1.5</v>
       </c>
       <c r="U24" t="s">
+        <v>16</v>
+      </c>
+      <c r="V24" t="s">
         <v>17</v>
-      </c>
-      <c r="V24" t="s">
-        <v>18</v>
       </c>
       <c r="X24" t="str">
         <f t="shared" si="2"/>
@@ -3960,7 +3965,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3969,7 +3974,7 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>32</v>
@@ -3978,25 +3983,25 @@
         <v>781.95873840000002</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>25.679650949999999</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M25">
         <v>49</v>
       </c>
       <c r="N25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O25">
         <v>32</v>
@@ -4005,22 +4010,22 @@
         <v>781.95873840000002</v>
       </c>
       <c r="Q25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R25">
         <v>25.679650949999999</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T25">
         <v>1.5</v>
       </c>
       <c r="U25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X25" t="str">
         <f t="shared" si="2"/>
@@ -4061,7 +4066,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -4070,7 +4075,7 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>32</v>
@@ -4085,19 +4090,19 @@
         <v>31.502201849999999</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M26">
         <v>49</v>
       </c>
       <c r="N26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O26">
         <v>32</v>
@@ -4112,16 +4117,16 @@
         <v>31.502201849999999</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T26">
         <v>1.5</v>
       </c>
       <c r="U26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X26" t="str">
         <f t="shared" si="2"/>
@@ -4162,7 +4167,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4171,7 +4176,7 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>19</v>
@@ -4186,19 +4191,19 @@
         <v>17.148358869999999</v>
       </c>
       <c r="I27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
         <v>49</v>
       </c>
-      <c r="K27" t="s">
-        <v>50</v>
-      </c>
       <c r="L27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M27">
         <v>48</v>
       </c>
       <c r="N27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O27">
         <v>19</v>
@@ -4213,16 +4218,16 @@
         <v>17.148358869999999</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T27">
         <v>1.5</v>
       </c>
       <c r="U27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X27" t="str">
         <f t="shared" si="2"/>
@@ -4263,7 +4268,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -4272,7 +4277,7 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>19</v>
@@ -4287,19 +4292,19 @@
         <v>28.565243129999999</v>
       </c>
       <c r="I28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" t="s">
         <v>49</v>
       </c>
-      <c r="K28" t="s">
-        <v>50</v>
-      </c>
       <c r="L28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M28">
         <v>48</v>
       </c>
       <c r="N28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O28">
         <v>19</v>
@@ -4314,16 +4319,16 @@
         <v>28.565243129999999</v>
       </c>
       <c r="S28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T28">
         <v>1.5</v>
       </c>
       <c r="U28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X28" t="str">
         <f t="shared" si="2"/>
@@ -4364,7 +4369,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4373,7 +4378,7 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>24</v>
@@ -4388,19 +4393,19 @@
         <v>23.211796679999999</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O29">
         <v>24</v>
@@ -4415,16 +4420,16 @@
         <v>23.211796679999999</v>
       </c>
       <c r="S29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T29">
         <v>3</v>
       </c>
       <c r="U29" t="s">
+        <v>16</v>
+      </c>
+      <c r="V29" t="s">
         <v>17</v>
-      </c>
-      <c r="V29" t="s">
-        <v>18</v>
       </c>
       <c r="X29" t="str">
         <f t="shared" si="2"/>
@@ -4465,7 +4470,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -4474,7 +4479,7 @@
         <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>24</v>
@@ -4489,19 +4494,19 @@
         <v>25.480246220000002</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M30">
         <v>51</v>
       </c>
       <c r="N30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O30">
         <v>24</v>
@@ -4516,16 +4521,16 @@
         <v>25.480246220000002</v>
       </c>
       <c r="S30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T30">
         <v>3</v>
       </c>
       <c r="U30" t="s">
+        <v>16</v>
+      </c>
+      <c r="V30" t="s">
         <v>17</v>
-      </c>
-      <c r="V30" t="s">
-        <v>18</v>
       </c>
       <c r="X30" t="str">
         <f t="shared" si="2"/>
@@ -4566,7 +4571,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4575,7 +4580,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>21</v>
@@ -4584,25 +4589,25 @@
         <v>715.09113119999995</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>39.41197313</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M31">
         <v>33</v>
       </c>
       <c r="N31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O31">
         <v>21</v>
@@ -4611,22 +4616,22 @@
         <v>715.09113119999995</v>
       </c>
       <c r="Q31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R31">
         <v>39.41197313</v>
       </c>
       <c r="S31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
       <c r="U31" t="s">
+        <v>16</v>
+      </c>
+      <c r="V31" t="s">
         <v>17</v>
-      </c>
-      <c r="V31" t="s">
-        <v>18</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" si="2"/>
@@ -4667,7 +4672,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -4676,7 +4681,7 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>21</v>
@@ -4691,19 +4696,19 @@
         <v>27.54524022</v>
       </c>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M32">
         <v>33</v>
       </c>
       <c r="N32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O32">
         <v>21</v>
@@ -4718,16 +4723,16 @@
         <v>27.54524022</v>
       </c>
       <c r="S32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32" t="s">
+        <v>16</v>
+      </c>
+      <c r="V32" t="s">
         <v>17</v>
-      </c>
-      <c r="V32" t="s">
-        <v>18</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" si="2"/>
@@ -4768,7 +4773,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4777,7 +4782,7 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>25</v>
@@ -4792,19 +4797,19 @@
         <v>22.018817739999999</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M33">
         <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O33">
         <v>25</v>
@@ -4819,16 +4824,16 @@
         <v>22.018817739999999</v>
       </c>
       <c r="S33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T33">
         <v>3</v>
       </c>
       <c r="U33" t="s">
+        <v>16</v>
+      </c>
+      <c r="V33" t="s">
         <v>17</v>
-      </c>
-      <c r="V33" t="s">
-        <v>18</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" si="2"/>
@@ -4869,7 +4874,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -4878,7 +4883,7 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34">
         <v>25</v>
@@ -4887,25 +4892,25 @@
         <v>553.12603530000001</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>26.13697866</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M34">
         <v>42</v>
       </c>
       <c r="N34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O34">
         <v>25</v>
@@ -4914,22 +4919,22 @@
         <v>553.12603530000001</v>
       </c>
       <c r="Q34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R34">
         <v>26.13697866</v>
       </c>
       <c r="S34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T34">
         <v>3</v>
       </c>
       <c r="U34" t="s">
+        <v>16</v>
+      </c>
+      <c r="V34" t="s">
         <v>17</v>
-      </c>
-      <c r="V34" t="s">
-        <v>18</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" si="2"/>
@@ -4970,7 +4975,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4979,7 +4984,7 @@
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>27</v>
@@ -4994,19 +4999,19 @@
         <v>28.909178409999999</v>
       </c>
       <c r="I35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M35">
         <v>43</v>
       </c>
       <c r="N35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O35">
         <v>27</v>
@@ -5021,16 +5026,16 @@
         <v>28.909178409999999</v>
       </c>
       <c r="S35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T35">
         <v>3</v>
       </c>
       <c r="U35" t="s">
+        <v>16</v>
+      </c>
+      <c r="V35" t="s">
         <v>17</v>
-      </c>
-      <c r="V35" t="s">
-        <v>18</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" si="2"/>
@@ -5071,7 +5076,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -5080,7 +5085,7 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>27</v>
@@ -5095,19 +5100,19 @@
         <v>30.217958299999999</v>
       </c>
       <c r="I36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M36">
         <v>43</v>
       </c>
       <c r="N36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O36">
         <v>27</v>
@@ -5122,16 +5127,16 @@
         <v>30.217958299999999</v>
       </c>
       <c r="S36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36" t="s">
+        <v>16</v>
+      </c>
+      <c r="V36" t="s">
         <v>17</v>
-      </c>
-      <c r="V36" t="s">
-        <v>18</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" si="2"/>
@@ -5172,7 +5177,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5181,7 +5186,7 @@
         <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>27</v>
@@ -5190,25 +5195,25 @@
         <v>620.60520289999999</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>31.009444760000001</v>
       </c>
       <c r="I37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M37">
         <v>46</v>
       </c>
       <c r="N37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O37">
         <v>27</v>
@@ -5217,22 +5222,22 @@
         <v>620.60520289999999</v>
       </c>
       <c r="Q37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R37">
         <v>31.009444760000001</v>
       </c>
       <c r="S37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T37">
         <v>3</v>
       </c>
       <c r="U37" t="s">
+        <v>16</v>
+      </c>
+      <c r="V37" t="s">
         <v>17</v>
-      </c>
-      <c r="V37" t="s">
-        <v>18</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" si="2"/>
@@ -5273,7 +5278,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -5282,7 +5287,7 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>27</v>
@@ -5291,25 +5296,25 @@
         <v>839.93066139999996</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>23.596916490000002</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M38">
         <v>46</v>
       </c>
       <c r="N38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O38">
         <v>27</v>
@@ -5318,22 +5323,22 @@
         <v>839.93066139999996</v>
       </c>
       <c r="Q38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R38">
         <v>23.596916490000002</v>
       </c>
       <c r="S38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38" t="s">
+        <v>16</v>
+      </c>
+      <c r="V38" t="s">
         <v>17</v>
-      </c>
-      <c r="V38" t="s">
-        <v>18</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" si="2"/>
@@ -5374,7 +5379,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5383,7 +5388,7 @@
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>22</v>
@@ -5398,19 +5403,19 @@
         <v>26.379567569999999</v>
       </c>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M39">
         <v>41</v>
       </c>
       <c r="N39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O39">
         <v>22</v>
@@ -5425,16 +5430,16 @@
         <v>26.379567569999999</v>
       </c>
       <c r="S39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39" t="s">
+        <v>16</v>
+      </c>
+      <c r="V39" t="s">
         <v>17</v>
-      </c>
-      <c r="V39" t="s">
-        <v>18</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" si="2"/>
@@ -5475,7 +5480,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -5484,7 +5489,7 @@
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <v>22</v>
@@ -5499,19 +5504,19 @@
         <v>43.838644889999998</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M40">
         <v>41</v>
       </c>
       <c r="N40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O40">
         <v>22</v>
@@ -5526,16 +5531,16 @@
         <v>43.838644889999998</v>
       </c>
       <c r="S40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40" t="s">
+        <v>16</v>
+      </c>
+      <c r="V40" t="s">
         <v>17</v>
-      </c>
-      <c r="V40" t="s">
-        <v>18</v>
       </c>
       <c r="X40" t="str">
         <f t="shared" si="2"/>
@@ -5576,7 +5581,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5585,7 +5590,7 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>32</v>
@@ -5600,19 +5605,19 @@
         <v>36.244113570000003</v>
       </c>
       <c r="I41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M41">
         <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O41">
         <v>32</v>
@@ -5627,16 +5632,16 @@
         <v>36.244113570000003</v>
       </c>
       <c r="S41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41" t="s">
+        <v>16</v>
+      </c>
+      <c r="V41" t="s">
         <v>17</v>
-      </c>
-      <c r="V41" t="s">
-        <v>18</v>
       </c>
       <c r="X41" t="str">
         <f t="shared" si="2"/>
@@ -5677,7 +5682,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -5686,7 +5691,7 @@
         <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>32</v>
@@ -5701,19 +5706,19 @@
         <v>29.061050009999999</v>
       </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M42">
         <v>39</v>
       </c>
       <c r="N42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O42">
         <v>32</v>
@@ -5728,16 +5733,16 @@
         <v>29.061050009999999</v>
       </c>
       <c r="S42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42" t="s">
+        <v>16</v>
+      </c>
+      <c r="V42" t="s">
         <v>17</v>
-      </c>
-      <c r="V42" t="s">
-        <v>18</v>
       </c>
       <c r="X42" t="str">
         <f t="shared" si="2"/>
@@ -5778,7 +5783,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5787,7 +5792,7 @@
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>33</v>
@@ -5802,19 +5807,19 @@
         <v>26.09479262</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M43">
         <v>43</v>
       </c>
       <c r="N43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O43">
         <v>33</v>
@@ -5829,16 +5834,16 @@
         <v>26.09479262</v>
       </c>
       <c r="S43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T43">
         <v>3</v>
       </c>
       <c r="U43" t="s">
+        <v>16</v>
+      </c>
+      <c r="V43" t="s">
         <v>17</v>
-      </c>
-      <c r="V43" t="s">
-        <v>18</v>
       </c>
       <c r="X43" t="str">
         <f t="shared" si="2"/>
@@ -5879,7 +5884,7 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -5888,7 +5893,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>33</v>
@@ -5903,19 +5908,19 @@
         <v>27.920669520000001</v>
       </c>
       <c r="I44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M44">
         <v>43</v>
       </c>
       <c r="N44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O44">
         <v>33</v>
@@ -5930,16 +5935,16 @@
         <v>27.920669520000001</v>
       </c>
       <c r="S44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44" t="s">
+        <v>16</v>
+      </c>
+      <c r="V44" t="s">
         <v>17</v>
-      </c>
-      <c r="V44" t="s">
-        <v>18</v>
       </c>
       <c r="X44" t="str">
         <f t="shared" si="2"/>
@@ -5980,7 +5985,7 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5989,7 +5994,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>30</v>
@@ -5998,25 +6003,25 @@
         <v>751.37243409999996</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>30.251095020000001</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M45">
         <v>44</v>
       </c>
       <c r="N45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O45">
         <v>30</v>
@@ -6025,22 +6030,22 @@
         <v>751.37243409999996</v>
       </c>
       <c r="Q45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R45">
         <v>30.251095020000001</v>
       </c>
       <c r="S45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T45">
         <v>3</v>
       </c>
       <c r="U45" t="s">
+        <v>16</v>
+      </c>
+      <c r="V45" t="s">
         <v>17</v>
-      </c>
-      <c r="V45" t="s">
-        <v>18</v>
       </c>
       <c r="X45" t="str">
         <f t="shared" si="2"/>
@@ -6081,7 +6086,7 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -6090,7 +6095,7 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>30</v>
@@ -6105,19 +6110,19 @@
         <v>36.13998848</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M46">
         <v>44</v>
       </c>
       <c r="N46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O46">
         <v>30</v>
@@ -6132,16 +6137,16 @@
         <v>36.13998848</v>
       </c>
       <c r="S46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T46">
         <v>3</v>
       </c>
       <c r="U46" t="s">
+        <v>16</v>
+      </c>
+      <c r="V46" t="s">
         <v>17</v>
-      </c>
-      <c r="V46" t="s">
-        <v>18</v>
       </c>
       <c r="X46" t="str">
         <f t="shared" si="2"/>
@@ -6182,7 +6187,7 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6191,7 +6196,7 @@
         <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>27</v>
@@ -6206,19 +6211,19 @@
         <v>32.679045449999997</v>
       </c>
       <c r="I47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M47">
         <v>43</v>
       </c>
       <c r="N47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O47">
         <v>27</v>
@@ -6233,16 +6238,16 @@
         <v>32.679045449999997</v>
       </c>
       <c r="S47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T47">
         <v>3</v>
       </c>
       <c r="U47" t="s">
+        <v>16</v>
+      </c>
+      <c r="V47" t="s">
         <v>17</v>
-      </c>
-      <c r="V47" t="s">
-        <v>18</v>
       </c>
       <c r="X47" t="str">
         <f t="shared" si="2"/>
@@ -6283,7 +6288,7 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -6292,7 +6297,7 @@
         <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <v>27</v>
@@ -6301,25 +6306,25 @@
         <v>661.61928250000005</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>21.735155249999998</v>
       </c>
       <c r="I48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M48">
         <v>43</v>
       </c>
       <c r="N48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O48">
         <v>27</v>
@@ -6328,22 +6333,22 @@
         <v>661.61928250000005</v>
       </c>
       <c r="Q48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R48">
         <v>21.735155249999998</v>
       </c>
       <c r="S48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48" t="s">
+        <v>16</v>
+      </c>
+      <c r="V48" t="s">
         <v>17</v>
-      </c>
-      <c r="V48" t="s">
-        <v>18</v>
       </c>
       <c r="X48" t="str">
         <f t="shared" si="2"/>
@@ -6384,7 +6389,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6393,7 +6398,7 @@
         <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <v>25</v>
@@ -6408,19 +6413,19 @@
         <v>38.305292389999998</v>
       </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M49">
         <v>50</v>
       </c>
       <c r="N49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O49">
         <v>25</v>
@@ -6435,16 +6440,16 @@
         <v>38.305292389999998</v>
       </c>
       <c r="S49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49" t="s">
+        <v>16</v>
+      </c>
+      <c r="V49" t="s">
         <v>17</v>
-      </c>
-      <c r="V49" t="s">
-        <v>18</v>
       </c>
       <c r="X49" t="str">
         <f t="shared" si="2"/>
@@ -6485,7 +6490,7 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -6494,7 +6499,7 @@
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E50">
         <v>25</v>
@@ -6509,19 +6514,19 @@
         <v>31.146089790000001</v>
       </c>
       <c r="I50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M50">
         <v>50</v>
       </c>
       <c r="N50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O50">
         <v>25</v>
@@ -6536,16 +6541,16 @@
         <v>31.146089790000001</v>
       </c>
       <c r="S50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50" t="s">
+        <v>16</v>
+      </c>
+      <c r="V50" t="s">
         <v>17</v>
-      </c>
-      <c r="V50" t="s">
-        <v>18</v>
       </c>
       <c r="X50" t="str">
         <f t="shared" si="2"/>
@@ -6586,7 +6591,7 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6595,7 +6600,7 @@
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E51">
         <v>33</v>
@@ -6610,19 +6615,19 @@
         <v>36.28122596</v>
       </c>
       <c r="I51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M51">
         <v>52</v>
       </c>
       <c r="N51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O51">
         <v>33</v>
@@ -6637,16 +6642,16 @@
         <v>36.28122596</v>
       </c>
       <c r="S51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51" t="s">
+        <v>16</v>
+      </c>
+      <c r="V51" t="s">
         <v>17</v>
-      </c>
-      <c r="V51" t="s">
-        <v>18</v>
       </c>
       <c r="X51" t="str">
         <f t="shared" si="2"/>
@@ -6687,7 +6692,7 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -6696,7 +6701,7 @@
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E52">
         <v>33</v>
@@ -6711,19 +6716,19 @@
         <v>28.53406597</v>
       </c>
       <c r="I52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M52">
         <v>52</v>
       </c>
       <c r="N52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O52">
         <v>33</v>
@@ -6738,16 +6743,16 @@
         <v>28.53406597</v>
       </c>
       <c r="S52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52" t="s">
+        <v>16</v>
+      </c>
+      <c r="V52" t="s">
         <v>17</v>
-      </c>
-      <c r="V52" t="s">
-        <v>18</v>
       </c>
       <c r="X52" t="str">
         <f t="shared" si="2"/>
@@ -6788,7 +6793,7 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6797,7 +6802,7 @@
         <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53">
         <v>25</v>
@@ -6812,19 +6817,19 @@
         <v>34.277129330000001</v>
       </c>
       <c r="I53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M53">
         <v>44</v>
       </c>
       <c r="N53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O53">
         <v>25</v>
@@ -6839,16 +6844,16 @@
         <v>34.277129330000001</v>
       </c>
       <c r="S53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T53">
         <v>3</v>
       </c>
       <c r="U53" t="s">
+        <v>16</v>
+      </c>
+      <c r="V53" t="s">
         <v>17</v>
-      </c>
-      <c r="V53" t="s">
-        <v>18</v>
       </c>
       <c r="X53" t="str">
         <f t="shared" si="2"/>
@@ -6889,7 +6894,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -6898,7 +6903,7 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54">
         <v>25</v>
@@ -6913,19 +6918,19 @@
         <v>31.3293094</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M54">
         <v>44</v>
       </c>
       <c r="N54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O54">
         <v>25</v>
@@ -6940,16 +6945,16 @@
         <v>31.3293094</v>
       </c>
       <c r="S54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T54">
         <v>3</v>
       </c>
       <c r="U54" t="s">
+        <v>16</v>
+      </c>
+      <c r="V54" t="s">
         <v>17</v>
-      </c>
-      <c r="V54" t="s">
-        <v>18</v>
       </c>
       <c r="X54" t="str">
         <f t="shared" si="2"/>
@@ -6990,7 +6995,7 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6999,7 +7004,7 @@
         <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55">
         <v>28</v>
@@ -7014,19 +7019,19 @@
         <v>24.11418677</v>
       </c>
       <c r="I55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M55">
         <v>60</v>
       </c>
       <c r="N55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O55">
         <v>28</v>
@@ -7041,16 +7046,16 @@
         <v>24.11418677</v>
       </c>
       <c r="S55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T55">
         <v>3</v>
       </c>
       <c r="U55" t="s">
+        <v>16</v>
+      </c>
+      <c r="V55" t="s">
         <v>17</v>
-      </c>
-      <c r="V55" t="s">
-        <v>18</v>
       </c>
       <c r="X55" t="str">
         <f t="shared" si="2"/>
@@ -7091,7 +7096,7 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -7100,7 +7105,7 @@
         <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E56">
         <v>28</v>
@@ -7115,19 +7120,19 @@
         <v>40.78832937</v>
       </c>
       <c r="I56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M56">
         <v>60</v>
       </c>
       <c r="N56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O56">
         <v>28</v>
@@ -7142,16 +7147,16 @@
         <v>40.78832937</v>
       </c>
       <c r="S56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T56">
         <v>3</v>
       </c>
       <c r="U56" t="s">
+        <v>16</v>
+      </c>
+      <c r="V56" t="s">
         <v>17</v>
-      </c>
-      <c r="V56" t="s">
-        <v>18</v>
       </c>
       <c r="X56" t="str">
         <f t="shared" si="2"/>
@@ -7192,7 +7197,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7201,7 +7206,7 @@
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57">
         <v>20</v>
@@ -7216,19 +7221,19 @@
         <v>32.472003829999998</v>
       </c>
       <c r="I57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M57">
         <v>37</v>
       </c>
       <c r="N57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O57">
         <v>20</v>
@@ -7243,16 +7248,16 @@
         <v>32.472003829999998</v>
       </c>
       <c r="S57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T57">
         <v>3</v>
       </c>
       <c r="U57" t="s">
+        <v>16</v>
+      </c>
+      <c r="V57" t="s">
         <v>17</v>
-      </c>
-      <c r="V57" t="s">
-        <v>18</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" si="2"/>
@@ -7293,7 +7298,7 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -7302,7 +7307,7 @@
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E58">
         <v>20</v>
@@ -7317,19 +7322,19 @@
         <v>23.092793260000001</v>
       </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M58">
         <v>37</v>
       </c>
       <c r="N58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O58">
         <v>20</v>
@@ -7344,16 +7349,16 @@
         <v>23.092793260000001</v>
       </c>
       <c r="S58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58" t="s">
+        <v>16</v>
+      </c>
+      <c r="V58" t="s">
         <v>17</v>
-      </c>
-      <c r="V58" t="s">
-        <v>18</v>
       </c>
       <c r="X58" t="str">
         <f t="shared" si="2"/>
@@ -7394,7 +7399,7 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7403,7 +7408,7 @@
         <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E59">
         <v>29</v>
@@ -7418,19 +7423,19 @@
         <v>14.125550499999999</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M59">
         <v>45</v>
       </c>
       <c r="N59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O59">
         <v>29</v>
@@ -7445,16 +7450,16 @@
         <v>14.125550499999999</v>
       </c>
       <c r="S59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59" t="s">
+        <v>16</v>
+      </c>
+      <c r="V59" t="s">
         <v>17</v>
-      </c>
-      <c r="V59" t="s">
-        <v>18</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="2"/>
@@ -7495,7 +7500,7 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -7504,7 +7509,7 @@
         <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60">
         <v>29</v>
@@ -7519,19 +7524,19 @@
         <v>17.122773070000001</v>
       </c>
       <c r="I60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M60">
         <v>45</v>
       </c>
       <c r="N60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O60">
         <v>29</v>
@@ -7546,16 +7551,16 @@
         <v>17.122773070000001</v>
       </c>
       <c r="S60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60" t="s">
+        <v>16</v>
+      </c>
+      <c r="V60" t="s">
         <v>17</v>
-      </c>
-      <c r="V60" t="s">
-        <v>18</v>
       </c>
       <c r="X60" t="str">
         <f t="shared" si="2"/>
@@ -7596,7 +7601,7 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7605,7 +7610,7 @@
         <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61">
         <v>31</v>
@@ -7614,25 +7619,25 @@
         <v>542.47156819999998</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>21.640660270000001</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M61">
         <v>57</v>
       </c>
       <c r="N61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O61">
         <v>31</v>
@@ -7641,22 +7646,22 @@
         <v>542.47156819999998</v>
       </c>
       <c r="Q61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R61">
         <v>21.640660270000001</v>
       </c>
       <c r="S61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T61">
         <v>1.5</v>
       </c>
       <c r="U61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X61" t="str">
         <f t="shared" si="2"/>
@@ -7697,7 +7702,7 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -7706,7 +7711,7 @@
         <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E62">
         <v>31</v>
@@ -7715,25 +7720,25 @@
         <v>695.08775660000003</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>37.230952260000002</v>
       </c>
       <c r="I62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M62">
         <v>57</v>
       </c>
       <c r="N62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O62">
         <v>31</v>
@@ -7742,22 +7747,22 @@
         <v>695.08775660000003</v>
       </c>
       <c r="Q62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R62">
         <v>37.230952260000002</v>
       </c>
       <c r="S62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T62">
         <v>1.5</v>
       </c>
       <c r="U62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X62" t="str">
         <f t="shared" si="2"/>
@@ -7798,7 +7803,7 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7807,7 +7812,7 @@
         <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -7822,19 +7827,19 @@
         <v>38.573791919999998</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M63">
         <v>43</v>
       </c>
       <c r="N63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O63">
         <v>20</v>
@@ -7849,16 +7854,16 @@
         <v>38.573791919999998</v>
       </c>
       <c r="S63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T63">
         <v>1.5</v>
       </c>
       <c r="U63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" si="2"/>
@@ -7899,7 +7904,7 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -7908,7 +7913,7 @@
         <v>43</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E64">
         <v>20</v>
@@ -7923,19 +7928,19 @@
         <v>22.553545570000001</v>
       </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M64">
         <v>43</v>
       </c>
       <c r="N64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O64">
         <v>20</v>
@@ -7950,16 +7955,16 @@
         <v>22.553545570000001</v>
       </c>
       <c r="S64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T64">
         <v>1.5</v>
       </c>
       <c r="U64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" si="2"/>
@@ -8000,7 +8005,7 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8009,7 +8014,7 @@
         <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E65">
         <v>20</v>
@@ -8018,25 +8023,25 @@
         <v>803.86178010000003</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>25.545220390000001</v>
       </c>
       <c r="I65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M65">
         <v>35</v>
       </c>
       <c r="N65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O65">
         <v>20</v>
@@ -8045,22 +8050,22 @@
         <v>803.86178010000003</v>
       </c>
       <c r="Q65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R65">
         <v>25.545220390000001</v>
       </c>
       <c r="S65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T65">
         <v>1.5</v>
       </c>
       <c r="U65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X65" t="str">
         <f t="shared" si="2"/>
@@ -8101,7 +8106,7 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -8110,7 +8115,7 @@
         <v>35</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E66">
         <v>20</v>
@@ -8125,19 +8130,19 @@
         <v>27.20857213</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M66">
         <v>35</v>
       </c>
       <c r="N66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O66">
         <v>20</v>
@@ -8152,16 +8157,16 @@
         <v>27.20857213</v>
       </c>
       <c r="S66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T66">
         <v>1.5</v>
       </c>
       <c r="U66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X66" t="str">
         <f t="shared" si="2"/>
@@ -8202,7 +8207,7 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8211,7 +8216,7 @@
         <v>60</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E67">
         <v>23</v>
@@ -8226,19 +8231,19 @@
         <v>14.7197642</v>
       </c>
       <c r="I67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M67">
         <v>60</v>
       </c>
       <c r="N67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O67">
         <v>23</v>
@@ -8253,16 +8258,16 @@
         <v>14.7197642</v>
       </c>
       <c r="S67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T67">
         <v>1.5</v>
       </c>
       <c r="U67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X67" t="str">
         <f t="shared" si="2"/>
@@ -8303,7 +8308,7 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -8312,7 +8317,7 @@
         <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E68">
         <v>23</v>
@@ -8327,19 +8332,19 @@
         <v>35.80312352</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M68">
         <v>60</v>
       </c>
       <c r="N68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O68">
         <v>23</v>
@@ -8354,16 +8359,16 @@
         <v>35.80312352</v>
       </c>
       <c r="S68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T68">
         <v>1.5</v>
       </c>
       <c r="U68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" ref="X68:X102" si="12">IF(A68=K68,"match","mismatch")</f>
@@ -8404,7 +8409,7 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8413,7 +8418,7 @@
         <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E69">
         <v>30</v>
@@ -8428,19 +8433,19 @@
         <v>26.327172439999998</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M69">
         <v>39</v>
       </c>
       <c r="N69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O69">
         <v>30</v>
@@ -8455,16 +8460,16 @@
         <v>26.327172439999998</v>
       </c>
       <c r="S69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T69">
         <v>1.5</v>
       </c>
       <c r="U69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X69" t="str">
         <f t="shared" si="12"/>
@@ -8505,7 +8510,7 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -8514,7 +8519,7 @@
         <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70">
         <v>30</v>
@@ -8523,25 +8528,25 @@
         <v>615.80370660000006</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>20.2828157</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M70">
         <v>39</v>
       </c>
       <c r="N70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O70">
         <v>30</v>
@@ -8550,22 +8555,22 @@
         <v>615.80370660000006</v>
       </c>
       <c r="Q70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R70">
         <v>20.2828157</v>
       </c>
       <c r="S70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T70">
         <v>1.5</v>
       </c>
       <c r="U70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="12"/>
@@ -8606,7 +8611,7 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8615,7 +8620,7 @@
         <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E71">
         <v>16</v>
@@ -8630,19 +8635,19 @@
         <v>32.705194499999998</v>
       </c>
       <c r="I71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M71">
         <v>51</v>
       </c>
       <c r="N71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O71">
         <v>16</v>
@@ -8657,16 +8662,16 @@
         <v>32.705194499999998</v>
       </c>
       <c r="S71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T71">
         <v>1.5</v>
       </c>
       <c r="U71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X71" t="str">
         <f t="shared" si="12"/>
@@ -8707,7 +8712,7 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -8716,7 +8721,7 @@
         <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>16</v>
@@ -8725,25 +8730,25 @@
         <v>697.66088930000001</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>35.609402199999998</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M72">
         <v>51</v>
       </c>
       <c r="N72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O72">
         <v>16</v>
@@ -8752,22 +8757,22 @@
         <v>697.66088930000001</v>
       </c>
       <c r="Q72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R72">
         <v>35.609402199999998</v>
       </c>
       <c r="S72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T72">
         <v>1.5</v>
       </c>
       <c r="U72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="12"/>
@@ -8808,7 +8813,7 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8817,7 +8822,7 @@
         <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E73">
         <v>22</v>
@@ -8826,25 +8831,25 @@
         <v>756.28480109999998</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>34.489528249999999</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M73">
         <v>33</v>
       </c>
       <c r="N73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O73">
         <v>22</v>
@@ -8853,22 +8858,22 @@
         <v>756.28480109999998</v>
       </c>
       <c r="Q73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R73">
         <v>34.489528249999999</v>
       </c>
       <c r="S73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T73">
         <v>1.5</v>
       </c>
       <c r="U73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X73" t="str">
         <f t="shared" si="12"/>
@@ -8909,7 +8914,7 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -8918,7 +8923,7 @@
         <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E74">
         <v>22</v>
@@ -8933,19 +8938,19 @@
         <v>40.08414527</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M74">
         <v>33</v>
       </c>
       <c r="N74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O74">
         <v>22</v>
@@ -8960,16 +8965,16 @@
         <v>40.08414527</v>
       </c>
       <c r="S74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T74">
         <v>1.5</v>
       </c>
       <c r="U74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X74" t="str">
         <f t="shared" si="12"/>
@@ -9010,7 +9015,7 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -9019,7 +9024,7 @@
         <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75">
         <v>19</v>
@@ -9034,19 +9039,19 @@
         <v>19.844161880000001</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M75">
         <v>37</v>
       </c>
       <c r="N75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O75">
         <v>19</v>
@@ -9061,16 +9066,16 @@
         <v>19.844161880000001</v>
       </c>
       <c r="S75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T75">
         <v>1.5</v>
       </c>
       <c r="U75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X75" t="str">
         <f t="shared" si="12"/>
@@ -9111,7 +9116,7 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -9120,7 +9125,7 @@
         <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76">
         <v>19</v>
@@ -9135,19 +9140,19 @@
         <v>23.252846559999998</v>
       </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M76">
         <v>37</v>
       </c>
       <c r="N76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O76">
         <v>19</v>
@@ -9162,16 +9167,16 @@
         <v>23.252846559999998</v>
       </c>
       <c r="S76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T76">
         <v>1.5</v>
       </c>
       <c r="U76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X76" t="str">
         <f t="shared" si="12"/>
@@ -9212,7 +9217,7 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9221,7 +9226,7 @@
         <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E77">
         <v>23</v>
@@ -9230,25 +9235,25 @@
         <v>666.66426869999998</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>27.223528040000001</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M77">
         <v>41</v>
       </c>
       <c r="N77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O77">
         <v>23</v>
@@ -9257,22 +9262,22 @@
         <v>666.66426869999998</v>
       </c>
       <c r="Q77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R77">
         <v>27.223528040000001</v>
       </c>
       <c r="S77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T77">
         <v>1.5</v>
       </c>
       <c r="U77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X77" t="str">
         <f t="shared" si="12"/>
@@ -9313,7 +9318,7 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -9322,7 +9327,7 @@
         <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E78">
         <v>23</v>
@@ -9337,19 +9342,19 @@
         <v>28.626316989999999</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M78">
         <v>41</v>
       </c>
       <c r="N78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O78">
         <v>23</v>
@@ -9364,16 +9369,16 @@
         <v>28.626316989999999</v>
       </c>
       <c r="S78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T78">
         <v>1.5</v>
       </c>
       <c r="U78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X78" t="str">
         <f t="shared" si="12"/>
@@ -9414,7 +9419,7 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -9423,7 +9428,7 @@
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E79">
         <v>29</v>
@@ -9438,19 +9443,19 @@
         <v>34.234790840000002</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M79">
         <v>40</v>
       </c>
       <c r="N79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O79">
         <v>29</v>
@@ -9465,16 +9470,16 @@
         <v>34.234790840000002</v>
       </c>
       <c r="S79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T79">
         <v>1.5</v>
       </c>
       <c r="U79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X79" t="str">
         <f t="shared" si="12"/>
@@ -9515,7 +9520,7 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -9524,7 +9529,7 @@
         <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E80">
         <v>29</v>
@@ -9539,19 +9544,19 @@
         <v>25.471325449999998</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M80">
         <v>40</v>
       </c>
       <c r="N80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O80">
         <v>29</v>
@@ -9566,16 +9571,16 @@
         <v>25.471325449999998</v>
       </c>
       <c r="S80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T80">
         <v>1.5</v>
       </c>
       <c r="U80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X80" t="str">
         <f t="shared" si="12"/>
@@ -9616,7 +9621,7 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -9625,7 +9630,7 @@
         <v>61</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E81">
         <v>21</v>
@@ -9640,19 +9645,19 @@
         <v>31.250384199999999</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M81">
         <v>61</v>
       </c>
       <c r="N81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O81">
         <v>21</v>
@@ -9667,16 +9672,16 @@
         <v>31.250384199999999</v>
       </c>
       <c r="S81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T81">
         <v>1.5</v>
       </c>
       <c r="U81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X81" t="str">
         <f t="shared" si="12"/>
@@ -9717,7 +9722,7 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -9726,7 +9731,7 @@
         <v>61</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E82">
         <v>21</v>
@@ -9735,25 +9740,25 @@
         <v>662.90191819999995</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>19.810865039999999</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M82">
         <v>61</v>
       </c>
       <c r="N82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O82">
         <v>21</v>
@@ -9762,22 +9767,22 @@
         <v>662.90191819999995</v>
       </c>
       <c r="Q82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R82">
         <v>19.810865039999999</v>
       </c>
       <c r="S82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T82">
         <v>1.5</v>
       </c>
       <c r="U82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X82" t="str">
         <f t="shared" si="12"/>
@@ -9818,7 +9823,7 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9827,7 +9832,7 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E83">
         <v>27</v>
@@ -9842,19 +9847,19 @@
         <v>37.629970350000001</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M83">
         <v>37</v>
       </c>
       <c r="N83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O83">
         <v>27</v>
@@ -9869,16 +9874,16 @@
         <v>37.629970350000001</v>
       </c>
       <c r="S83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T83">
         <v>1.5</v>
       </c>
       <c r="U83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X83" t="str">
         <f t="shared" si="12"/>
@@ -9919,7 +9924,7 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -9928,7 +9933,7 @@
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E84">
         <v>27</v>
@@ -9943,19 +9948,19 @@
         <v>32.34150005</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M84">
         <v>37</v>
       </c>
       <c r="N84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O84">
         <v>27</v>
@@ -9970,16 +9975,16 @@
         <v>32.34150005</v>
       </c>
       <c r="S84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T84">
         <v>1.5</v>
       </c>
       <c r="U84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" si="12"/>
@@ -10020,7 +10025,7 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -10029,7 +10034,7 @@
         <v>55</v>
       </c>
       <c r="D85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E85">
         <v>18</v>
@@ -10044,19 +10049,19 @@
         <v>16.914311720000001</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M85">
         <v>55</v>
       </c>
       <c r="N85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O85">
         <v>18</v>
@@ -10071,16 +10076,16 @@
         <v>16.914311720000001</v>
       </c>
       <c r="S85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T85">
         <v>1.5</v>
       </c>
       <c r="U85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X85" t="str">
         <f t="shared" si="12"/>
@@ -10121,7 +10126,7 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -10130,7 +10135,7 @@
         <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E86">
         <v>18</v>
@@ -10145,19 +10150,19 @@
         <v>25.959641850000001</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M86">
         <v>55</v>
       </c>
       <c r="N86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O86">
         <v>18</v>
@@ -10172,16 +10177,16 @@
         <v>25.959641850000001</v>
       </c>
       <c r="S86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T86">
         <v>1.5</v>
       </c>
       <c r="U86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X86" t="str">
         <f t="shared" si="12"/>
@@ -10222,7 +10227,7 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10231,7 +10236,7 @@
         <v>42</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E87">
         <v>20</v>
@@ -10246,19 +10251,19 @@
         <v>21.04966847</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M87">
         <v>42</v>
       </c>
       <c r="N87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O87">
         <v>20</v>
@@ -10273,16 +10278,16 @@
         <v>21.04966847</v>
       </c>
       <c r="S87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T87">
         <v>1.5</v>
       </c>
       <c r="U87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X87" t="str">
         <f t="shared" si="12"/>
@@ -10323,7 +10328,7 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -10332,7 +10337,7 @@
         <v>47</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E88">
         <v>18</v>
@@ -10347,19 +10352,19 @@
         <v>37.121758999999997</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M88">
         <v>47</v>
       </c>
       <c r="N88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O88">
         <v>18</v>
@@ -10374,16 +10379,16 @@
         <v>37.121758999999997</v>
       </c>
       <c r="S88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T88">
         <v>1.5</v>
       </c>
       <c r="U88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X88" t="str">
         <f t="shared" si="12"/>
@@ -10424,7 +10429,7 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -10433,7 +10438,7 @@
         <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E89">
         <v>29</v>
@@ -10448,19 +10453,19 @@
         <v>30.696242789999999</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M89">
         <v>42</v>
       </c>
       <c r="N89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O89">
         <v>29</v>
@@ -10475,16 +10480,16 @@
         <v>30.696242789999999</v>
       </c>
       <c r="S89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T89">
         <v>1.5</v>
       </c>
       <c r="U89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X89" t="str">
         <f t="shared" si="12"/>
@@ -10525,7 +10530,7 @@
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -10534,7 +10539,7 @@
         <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E90">
         <v>38</v>
@@ -10549,19 +10554,19 @@
         <v>42.487076620000003</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M90">
         <v>52</v>
       </c>
       <c r="N90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O90">
         <v>38</v>
@@ -10576,16 +10581,16 @@
         <v>42.487076620000003</v>
       </c>
       <c r="S90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T90">
         <v>1.5</v>
       </c>
       <c r="U90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X90" t="str">
         <f t="shared" si="12"/>
@@ -10626,7 +10631,7 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -10635,7 +10640,7 @@
         <v>62</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E91">
         <v>21</v>
@@ -10650,19 +10655,19 @@
         <v>15.94040554</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M91">
         <v>62</v>
       </c>
       <c r="N91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O91">
         <v>21</v>
@@ -10677,16 +10682,16 @@
         <v>15.94040554</v>
       </c>
       <c r="S91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T91">
         <v>1.5</v>
       </c>
       <c r="U91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X91" t="str">
         <f t="shared" si="12"/>
@@ -10727,7 +10732,7 @@
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -10736,7 +10741,7 @@
         <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E92">
         <v>25</v>
@@ -10751,19 +10756,19 @@
         <v>29.130078309999998</v>
       </c>
       <c r="I92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M92">
         <v>25</v>
       </c>
       <c r="N92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O92">
         <v>25</v>
@@ -10778,16 +10783,16 @@
         <v>29.130078309999998</v>
       </c>
       <c r="S92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T92">
         <v>1.5</v>
       </c>
       <c r="U92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X92" t="str">
         <f t="shared" si="12"/>
@@ -10828,7 +10833,7 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -10837,7 +10842,7 @@
         <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E93">
         <v>26</v>
@@ -10852,19 +10857,19 @@
         <v>21.004068310000001</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M93">
         <v>55</v>
       </c>
       <c r="N93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O93">
         <v>26</v>
@@ -10879,16 +10884,16 @@
         <v>21.004068310000001</v>
       </c>
       <c r="S93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T93">
         <v>1.5</v>
       </c>
       <c r="U93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X93" t="str">
         <f t="shared" si="12"/>
@@ -10929,7 +10934,7 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -10938,7 +10943,7 @@
         <v>61</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E94">
         <v>24</v>
@@ -10953,19 +10958,19 @@
         <v>29.0535058</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M94">
         <v>61</v>
       </c>
       <c r="N94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O94">
         <v>24</v>
@@ -10980,16 +10985,16 @@
         <v>29.0535058</v>
       </c>
       <c r="S94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T94">
         <v>1.5</v>
       </c>
       <c r="U94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X94" t="str">
         <f t="shared" si="12"/>
@@ -11030,7 +11035,7 @@
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11039,7 +11044,7 @@
         <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E95">
         <v>23</v>
@@ -11054,19 +11059,19 @@
         <v>34.987589180000001</v>
       </c>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M95">
         <v>45</v>
       </c>
       <c r="N95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O95">
         <v>23</v>
@@ -11081,16 +11086,16 @@
         <v>34.987589180000001</v>
       </c>
       <c r="S95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T95">
         <v>1.5</v>
       </c>
       <c r="U95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X95" t="str">
         <f t="shared" si="12"/>
@@ -11131,7 +11136,7 @@
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11140,7 +11145,7 @@
         <v>35</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E96">
         <v>16</v>
@@ -11155,19 +11160,19 @@
         <v>24.94297959</v>
       </c>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M96">
         <v>35</v>
       </c>
       <c r="N96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O96">
         <v>16</v>
@@ -11182,16 +11187,16 @@
         <v>24.94297959</v>
       </c>
       <c r="S96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T96">
         <v>1.5</v>
       </c>
       <c r="U96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X96" t="str">
         <f t="shared" si="12"/>
@@ -11232,7 +11237,7 @@
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -11241,7 +11246,7 @@
         <v>41</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E97">
         <v>30</v>
@@ -11256,19 +11261,19 @@
         <v>25.32080813</v>
       </c>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M97">
         <v>41</v>
       </c>
       <c r="N97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O97">
         <v>30</v>
@@ -11283,16 +11288,16 @@
         <v>25.32080813</v>
       </c>
       <c r="S97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T97">
         <v>1.5</v>
       </c>
       <c r="U97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X97" t="str">
         <f t="shared" si="12"/>
@@ -11333,7 +11338,7 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -11342,7 +11347,7 @@
         <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E98">
         <v>31</v>
@@ -11357,19 +11362,19 @@
         <v>36.917442829999999</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M98">
         <v>39</v>
       </c>
       <c r="N98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O98">
         <v>31</v>
@@ -11384,16 +11389,16 @@
         <v>36.917442829999999</v>
       </c>
       <c r="S98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T98">
         <v>1.5</v>
       </c>
       <c r="U98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X98" t="str">
         <f t="shared" si="12"/>
@@ -11434,7 +11439,7 @@
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -11443,7 +11448,7 @@
         <v>33</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E99">
         <v>26</v>
@@ -11458,19 +11463,19 @@
         <v>32.659866049999998</v>
       </c>
       <c r="I99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M99">
         <v>33</v>
       </c>
       <c r="N99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O99">
         <v>26</v>
@@ -11485,16 +11490,16 @@
         <v>32.659866049999998</v>
       </c>
       <c r="S99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T99">
         <v>1.5</v>
       </c>
       <c r="U99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X99" t="str">
         <f t="shared" si="12"/>
@@ -11535,7 +11540,7 @@
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -11544,7 +11549,7 @@
         <v>42</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E100">
         <v>24</v>
@@ -11553,25 +11558,25 @@
         <v>795.92734110000004</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>35.4026815</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M100">
         <v>42</v>
       </c>
       <c r="N100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O100">
         <v>24</v>
@@ -11580,22 +11585,22 @@
         <v>795.92734110000004</v>
       </c>
       <c r="Q100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R100">
         <v>35.4026815</v>
       </c>
       <c r="S100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T100">
         <v>1.5</v>
       </c>
       <c r="U100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X100" t="str">
         <f t="shared" si="12"/>
@@ -11636,7 +11641,7 @@
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -11645,7 +11650,7 @@
         <v>54</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E101">
         <v>28</v>
@@ -11660,19 +11665,19 @@
         <v>31.657659809999998</v>
       </c>
       <c r="I101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M101">
         <v>54</v>
       </c>
       <c r="N101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O101">
         <v>28</v>
@@ -11687,16 +11692,16 @@
         <v>31.657659809999998</v>
       </c>
       <c r="S101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T101">
         <v>1.5</v>
       </c>
       <c r="U101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X101" t="str">
         <f t="shared" si="12"/>
@@ -11737,7 +11742,7 @@
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -11746,7 +11751,7 @@
         <v>63</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E102">
         <v>30</v>
@@ -11761,19 +11766,19 @@
         <v>30.033819999999999</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M102">
         <v>63</v>
       </c>
       <c r="N102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O102">
         <v>30</v>
@@ -11788,16 +11793,16 @@
         <v>30.033819999999999</v>
       </c>
       <c r="S102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T102">
         <v>1.5</v>
       </c>
       <c r="U102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X102" t="str">
         <f t="shared" si="12"/>
@@ -11850,9 +11855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFD43F0-ACA6-43EC-8DB8-BD315A175ECB}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11868,84 +11871,84 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P1" s="13"/>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>10</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>7</v>
-      </c>
       <c r="O2" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="16" t="s">
-        <v>7</v>
-      </c>
       <c r="V2" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11954,7 +11957,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -11970,16 +11973,16 @@
       </c>
       <c r="I3" s="14"/>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L3">
         <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3">
         <v>28</v>
@@ -12015,7 +12018,7 @@
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -12024,7 +12027,7 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -12040,16 +12043,16 @@
       </c>
       <c r="I4" s="14"/>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L4">
         <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>30</v>
@@ -12085,10 +12088,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -12106,7 +12109,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -12128,9 +12131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FA20E9-4FC2-4295-991C-EC3200B38EA5}">
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:W13"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12150,100 +12151,100 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J1" s="13"/>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U1" s="13"/>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="O2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="16" t="s">
+      <c r="S2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="Z2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>7</v>
-      </c>
       <c r="AA2" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -12252,7 +12253,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>21</v>
@@ -12261,7 +12262,7 @@
         <v>3.56933051039936</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>865.1961087910795</v>
@@ -12271,34 +12272,34 @@
       </c>
       <c r="J3" s="14"/>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3">
         <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3">
         <v>21</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3">
         <v>3.5693305099999999</v>
       </c>
       <c r="Q3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R3">
         <v>1.5</v>
       </c>
       <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
         <v>17</v>
-      </c>
-      <c r="T3" t="s">
-        <v>18</v>
       </c>
       <c r="U3" s="14"/>
       <c r="V3" t="str">
@@ -12332,7 +12333,7 @@
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -12341,7 +12342,7 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>26</v>
@@ -12350,7 +12351,7 @@
         <v>2.3942956830583721</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>723.44359608061825</v>
@@ -12360,34 +12361,34 @@
       </c>
       <c r="J4" s="14"/>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M4">
         <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4">
         <v>26</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4">
         <v>2.3942956830000002</v>
       </c>
       <c r="Q4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R4">
         <v>1.5</v>
       </c>
       <c r="S4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" t="s">
         <v>17</v>
-      </c>
-      <c r="T4" t="s">
-        <v>18</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" t="str">
@@ -12421,62 +12422,62 @@
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>23</v>
       </c>
       <c r="F5" s="10">
-        <v>1.7789210515848137</v>
+        <v>4.728744031821976</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>871.49542438393917</v>
+        <v>812.69684100181564</v>
       </c>
       <c r="I5">
-        <v>21.383485312783634</v>
+        <v>23.993139309154053</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M5">
         <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5">
         <v>23</v>
       </c>
-      <c r="P5" s="10">
-        <v>1.7789210520000001</v>
+      <c r="P5">
+        <v>4.7287440319999998</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5">
         <v>1.5</v>
       </c>
       <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
         <v>17</v>
-      </c>
-      <c r="T5" t="s">
-        <v>18</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" t="str">
@@ -12501,7 +12502,7 @@
       </c>
       <c r="AA5" s="12">
         <f t="shared" si="1"/>
-        <v>-4.1518632976078607E-10</v>
+        <v>-1.78023817909434E-10</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="2"/>
@@ -12510,35 +12511,35 @@
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>23</v>
       </c>
       <c r="F6" s="10">
-        <v>4.728744031821976</v>
+        <v>1.7789210515848137</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>812.69684100181564</v>
+        <v>871.49542438393917</v>
       </c>
       <c r="I6">
-        <v>23.993139309154053</v>
+        <v>21.383485312783634</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
         <v>100</v>
@@ -12547,25 +12548,25 @@
         <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6">
         <v>23</v>
       </c>
-      <c r="P6" s="10">
-        <v>4.7287440319999998</v>
+      <c r="P6">
+        <v>1.7789210520000001</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R6">
         <v>1.5</v>
       </c>
       <c r="S6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" t="s">
         <v>17</v>
-      </c>
-      <c r="T6" t="s">
-        <v>18</v>
       </c>
       <c r="U6" s="14"/>
       <c r="V6" t="str">
@@ -12590,7 +12591,7 @@
       </c>
       <c r="AA6" s="12">
         <f t="shared" si="1"/>
-        <v>-1.78023817909434E-10</v>
+        <v>-4.1518632976078607E-10</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="2"/>
@@ -12599,62 +12600,62 @@
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>28</v>
       </c>
       <c r="F7" s="10">
-        <v>0.63490512076567684</v>
+        <v>4.2622986516926185</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>597.16644936341913</v>
+        <v>706.70948105361572</v>
       </c>
       <c r="I7">
-        <v>45.107254434333186</v>
+        <v>27.965040554485206</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M7">
         <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O7">
         <v>28</v>
       </c>
-      <c r="P7" s="10">
-        <v>0.63490512099999996</v>
+      <c r="P7">
+        <v>4.2622986520000001</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7">
         <v>1.5</v>
       </c>
       <c r="S7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" t="s">
         <v>17</v>
-      </c>
-      <c r="T7" t="s">
-        <v>18</v>
       </c>
       <c r="U7" s="14"/>
       <c r="V7" t="str">
@@ -12679,7 +12680,7 @@
       </c>
       <c r="AA7" s="12">
         <f t="shared" si="1"/>
-        <v>-2.3432311646587323E-10</v>
+        <v>-3.0738167566823904E-10</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="2"/>
@@ -12688,35 +12689,35 @@
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>28</v>
       </c>
       <c r="F8" s="10">
-        <v>4.2622986516926185</v>
+        <v>0.63490512076567684</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>706.70948105361572</v>
+        <v>597.16644936341913</v>
       </c>
       <c r="I8">
-        <v>27.965040554485206</v>
+        <v>45.107254434333186</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -12725,25 +12726,25 @@
         <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8">
         <v>28</v>
       </c>
-      <c r="P8" s="10">
-        <v>4.2622986520000001</v>
+      <c r="P8">
+        <v>0.63490512099999996</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R8">
         <v>1.5</v>
       </c>
       <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" t="s">
         <v>17</v>
-      </c>
-      <c r="T8" t="s">
-        <v>18</v>
       </c>
       <c r="U8" s="14"/>
       <c r="V8" t="str">
@@ -12768,7 +12769,7 @@
       </c>
       <c r="AA8" s="12">
         <f t="shared" si="1"/>
-        <v>-3.0738167566823904E-10</v>
+        <v>-2.3432311646587323E-10</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="2"/>
@@ -12777,7 +12778,7 @@
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -12786,7 +12787,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -12795,7 +12796,7 @@
         <v>4.1942506470296879</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>616.38659738446302</v>
@@ -12805,34 +12806,34 @@
       </c>
       <c r="J9" s="14"/>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M9">
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9">
         <v>32</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9">
         <v>4.1942506469999996</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R9">
         <v>1.5</v>
       </c>
       <c r="S9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" t="s">
         <v>17</v>
-      </c>
-      <c r="T9" t="s">
-        <v>18</v>
       </c>
       <c r="U9" s="14"/>
       <c r="V9" t="str">
@@ -12866,7 +12867,7 @@
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -12875,7 +12876,7 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>18</v>
@@ -12884,7 +12885,7 @@
         <v>2.0207706021960998</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>708.3208524068358</v>
@@ -12894,34 +12895,34 @@
       </c>
       <c r="J10" s="14"/>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M10">
         <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10">
         <v>18</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10">
         <v>2.0207706019999998</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R10">
         <v>1.5</v>
       </c>
       <c r="S10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" t="s">
         <v>17</v>
-      </c>
-      <c r="T10" t="s">
-        <v>18</v>
       </c>
       <c r="U10" s="14"/>
       <c r="V10" t="str">
@@ -12955,7 +12956,7 @@
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -12964,7 +12965,7 @@
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>38</v>
@@ -12973,7 +12974,7 @@
         <v>1.6506596133356166</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>571.00753210572248</v>
@@ -12983,34 +12984,34 @@
       </c>
       <c r="J11" s="14"/>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M11">
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11">
         <v>38</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11">
         <v>1.650659613</v>
       </c>
       <c r="Q11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R11">
         <v>1.5</v>
       </c>
       <c r="S11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" t="s">
         <v>17</v>
-      </c>
-      <c r="T11" t="s">
-        <v>18</v>
       </c>
       <c r="U11" s="14"/>
       <c r="V11" t="str">
@@ -13044,7 +13045,7 @@
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -13053,7 +13054,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>22</v>
@@ -13062,7 +13063,7 @@
         <v>3.7234793031901301</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>694.22387543399157</v>
@@ -13072,34 +13073,34 @@
       </c>
       <c r="J12" s="14"/>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M12">
         <v>19</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O12">
         <v>22</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12">
         <v>3.723479303</v>
       </c>
       <c r="Q12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R12">
         <v>1.5</v>
       </c>
       <c r="S12" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" t="s">
         <v>17</v>
-      </c>
-      <c r="T12" t="s">
-        <v>18</v>
       </c>
       <c r="U12" s="14"/>
       <c r="V12" t="str">
@@ -13133,7 +13134,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -13142,7 +13143,7 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>19</v>
@@ -13151,7 +13152,7 @@
         <v>0.53512121015042524</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13">
         <v>692.3495799606834</v>
@@ -13160,34 +13161,34 @@
         <v>21.070639348730559</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13">
         <v>50</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O13">
         <v>19</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13">
         <v>0.53512121000000001</v>
       </c>
       <c r="Q13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R13">
         <v>1.5</v>
       </c>
       <c r="S13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" t="s">
         <v>17</v>
-      </c>
-      <c r="T13" t="s">
-        <v>18</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="3"/>
@@ -13223,10 +13224,10 @@
       <c r="J14"/>
       <c r="U14"/>
       <c r="W14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA14" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -13246,7 +13247,7 @@
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J18"/>
       <c r="U18"/>
@@ -14377,6 +14378,10 @@
       <c r="C247" s="15"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I13">
+    <sortCondition ref="A3:A13"/>
+    <sortCondition ref="B3:B13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14385,9 +14390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8930CCB-0E73-4236-AB96-7FA8FE2C1D3B}">
   <dimension ref="A1:Y387"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14403,93 +14406,93 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J1" s="13"/>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R1" s="13"/>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>7</v>
-      </c>
       <c r="P2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="R2" s="13"/>
       <c r="S2" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="16" t="s">
-        <v>7</v>
-      </c>
       <c r="X2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -14498,7 +14501,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>21</v>
@@ -14513,19 +14516,19 @@
         <v>31.52438817874344</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3">
         <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3">
         <v>21</v>
@@ -14567,7 +14570,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -14576,7 +14579,7 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>23</v>
@@ -14591,19 +14594,19 @@
         <v>23.993139309154053</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4">
         <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4">
         <v>23</v>
@@ -14645,7 +14648,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -14654,7 +14657,7 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>23</v>
@@ -14669,19 +14672,19 @@
         <v>21.383485312783634</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M5">
         <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5">
         <v>23</v>
@@ -14723,7 +14726,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -14732,7 +14735,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>22</v>
@@ -14747,19 +14750,19 @@
         <v>43.838644889817928</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M6">
         <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6">
         <v>22</v>
@@ -14801,7 +14804,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -14810,7 +14813,7 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -14825,19 +14828,19 @@
         <v>29.061050010084358</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M7">
         <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7">
         <v>32</v>
@@ -14879,7 +14882,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -14888,7 +14891,7 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>25</v>
@@ -14903,19 +14906,19 @@
         <v>34.277129326065143</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M8">
         <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8">
         <v>25</v>
@@ -14957,7 +14960,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -14966,7 +14969,7 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>28</v>
@@ -14981,19 +14984,19 @@
         <v>24.114186765238216</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M9">
         <v>60</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9">
         <v>28</v>
@@ -15035,7 +15038,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -15044,7 +15047,7 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>23</v>
@@ -15059,19 +15062,19 @@
         <v>35.803123520671093</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M10">
         <v>60</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10">
         <v>23</v>
@@ -15113,7 +15116,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -15122,7 +15125,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>23</v>
@@ -15137,19 +15140,19 @@
         <v>28.626316991961186</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M11">
         <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11">
         <v>23</v>
@@ -15191,7 +15194,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -15200,7 +15203,7 @@
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>18</v>
@@ -15215,19 +15218,19 @@
         <v>25.959641854526986</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M12">
         <v>55</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O12">
         <v>18</v>
@@ -15269,7 +15272,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -15278,7 +15281,7 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>16</v>
@@ -15293,19 +15296,19 @@
         <v>24.94297958562839</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O13">
         <v>16</v>
@@ -15347,7 +15350,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -15356,7 +15359,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>26</v>
@@ -15371,19 +15374,19 @@
         <v>32.659866047426256</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M14">
         <v>33</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O14">
         <v>26</v>
@@ -15428,13 +15431,13 @@
       <c r="J15"/>
       <c r="R15"/>
       <c r="T15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="X15" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="X15" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="Y15" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -15450,7 +15453,7 @@
     <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J18"/>
       <c r="R18"/>
